--- a/原始分成.xlsx
+++ b/原始分成.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C755"/>
+  <dimension ref="A1:C942"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -7053,12 +7053,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>特种兵新娘快乐结婚的一天🎈厦门旅拍婚纱照 #厦门旅拍 #厦门婚纱照 #旅拍 #旅拍婚纱照 #拍摄花絮</t>
+          <t>用婚纱照转场😎开启我的人生新副本啦～ #婚纱照转场 #旅拍 #旅拍婚纱照 #备婚 #花絮</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAZmg5EdYYif57nazQbQmyfQ</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -7068,12 +7068,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>特种兵新娘快乐结婚的一天🎈厦门旅拍婚纱照 #厦门旅拍 #厦门婚纱照 #旅拍 #旅拍婚纱照 #拍摄花絮</t>
+          <t>秒变春日甜妹🌸每一帧都是心动瞬间 #甜妹 #春日 #妆造 #婚纱照 #客片分享</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAZmg5EdYYif57nazQbQmyfQ</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -7083,12 +7083,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>特种兵新娘快乐结婚的一天🎈厦门旅拍婚纱照 #厦门旅拍 #厦门婚纱照 #旅拍 #旅拍婚纱照 #拍摄花絮</t>
+          <t>来拍婚纱照怎么能不拍这个转场 #婚纱照转场 #转场 #旅拍 #旅拍婚纱照 #花絮</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAZmg5EdYYif57nazQbQmyfQ</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -7098,12 +7098,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>《客照作品》厦门鼓浪屿！教堂仪式感婚纱照 #婚纱照花絮 #每个女孩的婚纱梦 #客片分享 #拍摄花絮</t>
+          <t>包出片的！拍婚纱照角度越刁钻越出片！ #厦门婚纱照 #婚纱照 #拍摄花絮 #旅拍</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAlsEDtD1rgBY5qPSjmODgoQ</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -7113,12 +7113,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>《客照作品》厦门鼓浪屿！教堂仪式感婚纱照 #婚纱照花絮 #每个女孩的婚纱梦 #客片分享 #拍摄花絮</t>
+          <t>啊啊啊是谁还没有来厦门！！太好拍了吧！！ #婚纱照花絮mv #街拍婚纱照 #婚紗照 #外景拍摄</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAV9FELYTVv55v8-FHxvv7Wg</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -7128,12 +7128,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>《客照作品》厦门鼓浪屿！教堂仪式感婚纱照 #婚纱照花絮 #每个女孩的婚纱梦 #客片分享 #拍摄花絮</t>
+          <t>00后婚纱妆造已经next level~ #化妆师 #妆造 #厦门旅拍 #婚纱照 #备婚</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA7WtwQSpSAxyYGBXprlYsUA</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -7143,12 +7143,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>给无声女孩拍婚纱照的一天</t>
+          <t>镜头反转对着相爱的我们~厦门旅拍 #旅拍婚纱照 #婚纱照 #婚纱照风格 #备婚 #厦门旅拍</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>woxjrqDwAARjTBOjoiE7fKljLyj7eA4w</t>
+          <t>woxjrqDwAAVqSnb5VY15ZkGTfs0Tl_lg</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -7158,12 +7158,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>如果幸福是酵母，那我就是一块蓬松的小面包 ﻿#厦门婚纱照﻿ ﻿#备婚﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+          <t>拍婚纱照的时候老公也是有任务的... #婚纱照花絮 #婚纱👰 #每个女孩的婚纱梦 #拍摄花絮 #婚紗照</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAV9FELYTVv55v8-FHxvv7Wg</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -7173,12 +7173,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>如果幸福是酵母，那我就是一块蓬松的小面包 ﻿#厦门婚纱照﻿ ﻿#备婚﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+          <t>人生就要充满passion~ #旅拍 #旅拍婚纱照 #旅拍vlog #婚纱照 #备婚</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAlMK6ft75PH1pYXFYNQXuoQ</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -7188,12 +7188,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>如果幸福是酵母，那我就是一块蓬松的小面包 ﻿#厦门婚纱照﻿ ﻿#备婚﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+          <t>人生就要充满passion~ #旅拍 #旅拍婚纱照 #旅拍vlog #婚纱照 #备婚</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAx4Jvm9GcxsmZ7RoLwVwTXw</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -7203,12 +7203,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>特种兵新娘快乐结婚的一天🎈厦门旅拍婚纱照 #厦门旅拍 #厦门婚纱照 #旅拍 #旅拍婚纱照 #拍摄花絮</t>
+          <t>今天的最美新娘❤️小姐姐好甜好温柔 #婚纱照 #婚纱照花絮 #婚纱照分享 #客片 #备婚</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>woxjrqDwAAlvI0BxMzitIvev8QJy-VMw</t>
+          <t>woxjrqDwAAOplA3yzywZibBNr744hIDQ</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -7218,12 +7218,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>《客照作品》厦门鼓浪屿！教堂仪式感婚纱照 #婚纱照花絮 #每个女孩的婚纱梦 #客片分享 #拍摄花絮</t>
+          <t>💕婚纱+草坪+恋人=极致浪漫～ #婚纱照 #婚纱照风格 #花絮 #旅拍 #备婚</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>woxjrqDwAAlvI0BxMzitIvev8QJy-VMw</t>
+          <t>woxjrqDwAAN1-NQlUyqS0KTnCbkzpDEw</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -7233,12 +7233,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>给无声女孩拍婚纱照的一天</t>
+          <t>💕婚纱+草坪+恋人=极致浪漫～ #婚纱照 #婚纱照风格 #花絮 #旅拍 #备婚</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>woxjrqDwAAlQKSc-ocrL93dDrOzc50Fw</t>
+          <t>woxjrqDwAAqp9u8LAYgIWw10ZIK5bMgA</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -7248,12 +7248,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>如果幸福是酵母，那我就是一块蓬松的小面包 ﻿#厦门婚纱照﻿ ﻿#备婚﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+          <t>到底是谁的crush啊 #婚纱 #旅拍 #婚纱照 #客片 #花絮</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAWvJQT1XPGnIrp1ujOpA0PQ</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -7263,12 +7263,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>鼓浪屿教堂婚纱照喜欢仪式感别错过 #鼓浪屿教堂 #旅拍 #旅拍婚纱照 #厦门旅拍 #厦门婚纱照</t>
+          <t>拿下！是我想要的小清新婚礼Mv #微电影 #婚纱照花絮 #旅拍 #婚纱照 #客片分享</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAufliuMSfUpZwGWdfBJBIoA</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -7278,12 +7278,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>终于去拍婚纱照啦 手机拍摄的花絮都好爱~ #婚纱照花絮 #目的地婚礼 #婚纱照 #厦门旅拍 #厦门婚纱照</t>
+          <t>拿下！是我想要的小清新婚礼Mv #微电影 #婚纱照花絮 #旅拍 #婚纱照 #客片分享</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA-t5GSmZbI9tp7Tf19llwYQ</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -7293,12 +7293,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>厦门鼓浪屿拍的婚纱照🎀说是天花板不过分吧</t>
+          <t>巴厘岛旅拍花絮分享 #旅拍 #婚纱照 #客片分享 #旅拍婚纱照 #巴厘岛</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAgNrMMw9hlXXsGoZAdrghHQ</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -7308,12 +7308,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>婚纱照拍摄花絮曝光❗️现在拍婚纱照连花絮都这么卷了吗？ #内景婚纱照 #主婚纱婚纱照 #旅拍 #婚纱照 #婚纱照风格</t>
+          <t>巴厘岛旅拍花絮分享 #旅拍 #婚纱照 #客片分享 #旅拍婚纱照 #巴厘岛</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAywjkfXFJrxqGyyZKZYuInQ</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -7323,12 +7323,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>热门仙女定制款💞梦幻海边婚纱照粉色系列 #大理旅拍 #旅拍 #婚纱照 #云南旅拍 #婚纱照风格</t>
+          <t>美晕了！！拍到了我的人生婚纱照 ﻿#婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#海边婚纱照﻿ ﻿#教堂婚纱照﻿ ﻿#铂爵﻿ ﻿#铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAfMXKSINyMfvS3jC4-y8hTg</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -7338,12 +7338,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>一天的新娘👰‍♀️体验卡💐妆前vs妆后反差... #婚纱照 #妆容分享 #妆造 #我的婚纱照 #客片分享</t>
+          <t>美晕了！！拍到了我的人生婚纱照 ﻿#婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#海边婚纱照﻿ ﻿#教堂婚纱照﻿ ﻿#铂爵﻿ ﻿#铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAuuVd3AwaEwS3Uuh2uiIj5Q</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -7353,12 +7353,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>绝美法式婚纱照💐简直就是我的氛围感天菜</t>
+          <t>美晕了！！拍到了我的人生婚纱照 ﻿#婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#海边婚纱照﻿ ﻿#教堂婚纱照﻿ ﻿#铂爵﻿ ﻿#铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA9NcFA2KvKhsLhWzlONyiaA</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -7368,12 +7368,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>是被雪山见证的幸福呀🏔️</t>
+          <t>海边日落！谁懂金色婚纱照的含金量！ ﻿#厦门婚纱照﻿ ﻿#海边婚纱照﻿ ﻿#婚纱照﻿ ﻿#铂爵旅拍婚纱照﻿ ﻿#铂爵</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAkXhp8y1Vt-obHv0uJy1X7A</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -7383,12 +7383,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>讲真，鼓浪屿拍这个机位真的有够浪漫！！ #鼓浪屿 #厦门婚纱照 #铂爵旅拍婚纱照</t>
+          <t>海边日落！谁懂金色婚纱照的含金量！ ﻿#厦门婚纱照﻿ ﻿#海边婚纱照﻿ ﻿#婚纱照﻿ ﻿#铂爵旅拍婚纱照﻿ ﻿#铂爵</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAyXi0QmluvryLI-5U1eYxlQ</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -7398,12 +7398,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>把婚纱照拍成电影🎬 #我在人间贩卖黄昏 #一起看海 #镜头是爱意的具象化 #铂爵旅拍婚纱照</t>
+          <t>被朋友问疯了！我的丽江婚纱照也太酷了吧 ﻿#丽江婚纱照﻿ ﻿#大理婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAHtKrYpNgTffxeDT2Gtz1vA</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -7413,12 +7413,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>替大家试过了！油画婚纱照确实美得离谱！</t>
+          <t>被朋友问疯了！我的丽江婚纱照也太酷了吧 ﻿#丽江婚纱照﻿ ﻿#大理婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAATfOclZY1kHkylsbdUEBJCQ</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -7428,12 +7428,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>巨好看！傣族公主般婚纱照谁能不爱 #傣族服饰 #铂爵旅拍 #婚纱照花絮</t>
+          <t>论一个会引导的摄影师的重要性！ ﻿#婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#铂爵旅拍婚纱照﻿ ﻿#铂爵﻿ ﻿#备婚﻿ ﻿#婚纱照推荐</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAyXi0QmluvryLI-5U1eYxlQ</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -7443,12 +7443,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>一名合格的摄影师需要具备什么精神？#拍摄花絮 #摄影日常 #铂爵旅拍</t>
+          <t>论一个会引导的摄影师的重要性！ ﻿#婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#铂爵旅拍婚纱照﻿ ﻿#铂爵﻿ ﻿#备婚﻿ ﻿#婚纱照推荐</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
+          <t>woxjrqDwAAkXhp8y1Vt-obHv0uJy1X7A</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -7458,12 +7458,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>新郎都是拍照工具人实锤了 #婚纱照花絮 #拍摄花絮 #婚纱照</t>
+          <t>不动声色的东方美学❤️太有氛围感了 ﻿#新中式婚纱照﻿ ﻿#中式婚纱照﻿ ﻿#一生要出片的要强女人﻿ ﻿#铂爵旅拍﻿ ﻿#铂爵</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
+          <t>woxjrqDwAAgcvKxkipQiNpJh16m4oj5A</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -7473,12 +7473,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>出片是我们每个摄影师的使命！#客片分享 #摄影花絮 #外景拍摄花絮</t>
+          <t>不动声色的东方美学❤️太有氛围感了 ﻿#新中式婚纱照﻿ ﻿#中式婚纱照﻿ ﻿#一生要出片的要强女人﻿ ﻿#铂爵旅拍﻿ ﻿#铂爵</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
+          <t>woxjrqDwAAjN_FvkJrjOZTbMtzESzEHA</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -7488,12 +7488,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>拍摄现场直击！#拍摄花絮 #婚纱照 #厦门婚纱照</t>
+          <t>欢迎收看00后女生在丽江的婚纱照vlog ﻿#婚纱照vlog﻿ ﻿#婚纱照花絮</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
+          <t>woxjrqDwAAHtKrYpNgTffxeDT2Gtz1vA</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -7503,12 +7503,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>每一帧都是「人间值得」#拍摄花絮 #婚纱照 #旅拍婚纱照</t>
+          <t>欢迎收看00后女生在丽江的婚纱照vlog ﻿#婚纱照vlog﻿ ﻿#婚纱照花絮</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
+          <t>woxjrqDwAATfOclZY1kHkylsbdUEBJCQ</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -7518,12 +7518,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>粉色森系在逃公主婚纱照~甜妹必拍 #我的婚纱照 #婚纱照 #旅拍 #旅拍婚纱照 #备婚</t>
+          <t>🎬婚纱照Vlog 💗体验女明星的一天 ﻿#婚纱照vlog﻿ ﻿#记录生活﻿ ﻿#备婚﻿ ﻿#婚纱照</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAzbZCIWP0_xeDP-tIHjHJ6Q</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -7533,12 +7533,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>嘴真严啊‼️没人告诉我红色旗袍这么出片啊 #旗袍婚纱照 #旅拍 #旅拍婚纱照 #婚纱照 #新中式</t>
+          <t>🎬婚纱照Vlog 💗体验女明星的一天 ﻿#婚纱照vlog﻿ ﻿#记录生活﻿ ﻿#备婚﻿ ﻿#婚纱照</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAuuVd3AwaEwS3Uuh2uiIj5Q</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -7548,12 +7548,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>带你沉浸式体验旅拍摄影师的一天.... #婚纱照花絮 #旅拍 #旅拍婚纱照 #我的婚纱照 #婚纱照</t>
+          <t>🎬婚纱照Vlog 💗体验女明星的一天 ﻿#婚纱照vlog﻿ ﻿#记录生活﻿ ﻿#备婚﻿ ﻿#婚纱照</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAfMXKSINyMfvS3jC4-y8hTg</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -7563,12 +7563,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>是小时候成为梦想成为的漂亮新娘 旅拍婚纱照 #每个女孩的婚纱梦 #婚纱照花絮 #客片分享 #婚纱照 #旅拍婚纱照</t>
+          <t>婚纱照就是甜蜜的密码呀！ ﻿#婚纱照﻿ ﻿#我们拍婚纱照啦﻿ ﻿#备婚</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA7jP5Fg57G5r2JzuFnNOPWg</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -7578,12 +7578,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>A爆了！这狗粮我先吃为敬 #婚纱照花絮 #拍出电影感 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+          <t>春日限定~跑进明媚又鲜活的春天🌸 ﻿#婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#厦门婚纱照﻿ ﻿#丽江婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA-t5GSmZbI9tp7Tf19llwYQ</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -7593,12 +7593,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>你的出现胜过明媚的春#婚纱照 #婚前微电影 #趁着春暖花开拍婚纱照吧 #李梦然 #澄芓</t>
+          <t>春日限定~跑进明媚又鲜活的春天🌸 ﻿#婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#厦门婚纱照﻿ ﻿#丽江婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
+          <t>woxjrqDwAAufliuMSfUpZwGWdfBJBIoA</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7608,12 +7608,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>拜托！这样的街拍婚纱照真的很酷 #街拍婚纱照 #拍摄花絮</t>
+          <t>春日限定~跑进明媚又鲜活的春天🌸 ﻿#婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#厦门婚纱照﻿ ﻿#丽江婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
+          <t>woxjrqDwAA1upIIdlOnVlQEtWZHS9z8Q</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -7623,12 +7623,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>今日糖分已加载200% #婚纱照花絮 #我们拍婚纱了 #拍摄花絮 #铂爵旅拍婚纱照</t>
+          <t>拿下！是我想要的小清新婚礼微电影 ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#婚前微电影﻿ ﻿#微电影﻿ ﻿#婚礼纪实</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAufliuMSfUpZwGWdfBJBIoA</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -7638,12 +7638,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>甜蜜来袭‼️元气满满的小清新春日婚纱照✨ #婚纱照 #婚纱照花絮#铂爵旅拍婚纱照 #李羲承进行曲</t>
+          <t>拿下！是我想要的小清新婚礼微电影 ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#婚前微电影﻿ ﻿#微电影﻿ ﻿#婚礼纪实</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA-t5GSmZbI9tp7Tf19llwYQ</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -7653,12 +7653,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>我若拿出此等美景，阁下该如何应对 #每个女孩的婚纱梦 #旅拍 #旅拍婚纱照 #铂爵旅拍婚纱照</t>
+          <t>用婚纱照转场😎开启我的人生新副本 ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#转场﻿ ﻿#婚纱照推荐﻿ ﻿#婚纱照风格﻿ ﻿#花絮</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAZmg5EdYYif57nazQbQmyfQ</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -7668,12 +7668,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>笑着嫁给18岁喜欢的男孩啦 #婚纱照 #客片分享 #婚紗照</t>
+          <t>00后婚纱妆造已经next level~ ﻿#妆造﻿ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#每个女孩的婚纱梦﻿ ﻿#备婚</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAA7WtwQSpSAxyYGBXprlYsUA</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -7683,12 +7683,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>海是自由的，我们也是 #婚纱照花絮 #大理婚纱照 #洱海婚纱照 #铂爵旅拍婚纱照</t>
+          <t>拍婚纱照的时候老公也是有任务的... ﻿#厦门鼓浪屿﻿ ﻿#旅拍﻿ ﻿#客片分享﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#婚纱照风格</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAV9FELYTVv55v8-FHxvv7Wg</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -7698,12 +7698,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>婚纱照预告片抢先看 #每个女孩的婚纱梦 #我们拍婚纱了 #婚纱照花絮</t>
+          <t>巴厘岛旅拍花絮分享 ﻿#巴厘岛旅拍﻿ ﻿#婚纱照﻿ ﻿#旅拍﻿ ﻿#客片分享﻿ ﻿#花絮分享</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAgNrMMw9hlXXsGoZAdrghHQ</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -7713,12 +7713,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>原来幸福真的会让人长出酒窝 #拍婚纱婚纱花絮 #每个女孩的婚纱梦</t>
+          <t>巴厘岛旅拍花絮分享 ﻿#巴厘岛旅拍﻿ ﻿#婚纱照﻿ ﻿#旅拍﻿ ﻿#客片分享﻿ ﻿#花絮分享</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAywjkfXFJrxqGyyZKZYuInQ</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -7728,12 +7728,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>都是摄影师越黑技术含量越高 #旅拍婚纱照 #每个女孩的婚纱梦</t>
+          <t>人生就要充满passion~三亚客片花絮分享 ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#三亚旅拍﻿ ﻿#三亚旅拍婚纱照﻿ ﻿#备婚</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAlMK6ft75PH1pYXFYNQXuoQ</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -7743,12 +7743,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>镜头装不下的汹涌爱意 #跟拍摄影 #每个女孩的婚纱梦 #婚纱照</t>
+          <t>人生就要充满passion~三亚客片花絮分享 ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#三亚旅拍﻿ ﻿#三亚旅拍婚纱照﻿ ﻿#备婚</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAx4Jvm9GcxsmZ7RoLwVwTXw</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -7758,12 +7758,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>笑着嫁给陪我奇奇怪怪的人啦 #婚纱照花絮 #我们拍婚纱了 #摄影约拍</t>
+          <t>秒变春日甜妹🌸每一帧都是心动瞬间 客片 ﻿#春日﻿ ﻿#甜妹﻿ ﻿#森系﻿ ﻿#婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#婚纱照推荐﻿ ﻿#旅拍</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAZmg5EdYYif57nazQbQmyfQ</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -7773,12 +7773,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>婚纱照花絮｜幸福是可以被感染的🧚‍♀️ #婚纱照 #旅拍 #旅拍婚纱照 #婚纱照花絮 #婚纱照风格</t>
+          <t>💕婚纱+草坪+恋人=极致浪漫 ﻿#婚纱照风格﻿ ﻿#婚纱照﻿ ﻿#旅拍﻿ ﻿#草坪婚纱照﻿ ﻿#备婚﻿ ﻿#三亚旅拍</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAN1-NQlUyqS0KTnCbkzpDEw</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -7788,12 +7788,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>“定格你们的幸福瞬间 谱写着世界上最浪漫的语言” #大理洱海 #大理旅拍 #旅拍婚纱照 #婚纱照 #备婚</t>
+          <t>💕婚纱+草坪+恋人=极致浪漫 ﻿#婚纱照风格﻿ ﻿#婚纱照﻿ ﻿#旅拍﻿ ﻿#草坪婚纱照﻿ ﻿#备婚﻿ ﻿#三亚旅拍</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAqp9u8LAYgIWw10ZIK5bMgA</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -7803,12 +7803,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>将私有浪漫公之于众 #每个女孩的婚纱梦 #婚纱照花絮 #备婚日常 #拍摄花絮 #婚纱摄影</t>
+          <t>镜头反转对着相爱的我们~ ﻿#婚纱照花絮﻿ ﻿#婚纱照推荐﻿ ﻿#旅拍﻿ ﻿#厦门婚纱照﻿ ﻿#备婚</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAVqSnb5VY15ZkGTfs0Tl_lg</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -7818,12 +7818,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>救命~这么甜是要迷死谁呀 #拍摄花絮 #客片分享 #婚纱照花絮 #婚纱照 #旅拍婚纱照</t>
+          <t>啊啊啊是谁还没有来厦门！！太好拍了吧！ ﻿#婚纱照花絮﻿ ﻿#婚纱照推荐﻿ ﻿#旅拍﻿ ﻿#厦门</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAV9FELYTVv55v8-FHxvv7Wg</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -7833,12 +7833,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>找到共写人生剧本的搭档 #客片分享 #婚纱照</t>
+          <t>包出片的！拍婚纱照角度越刁钻越出片 ﻿#婚纱照花絮﻿ ﻿#婚纱照推荐﻿ ﻿#旅拍﻿ ﻿#小众婚纱照﻿ ﻿#厦门婚纱照</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
+          <t>woxjrqDwAAlsEDtD1rgBY5qPSjmODgoQ</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -7848,12 +7848,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>剧透婚纱照的万分之一甜 #拍摄花絮 #婚纱照</t>
+          <t>今天的客妹好甜哇~ ﻿#厦门婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#婚纱照花絮﻿ ﻿#旅拍</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
+          <t>woxjrqDwAAOplA3yzywZibBNr744hIDQ</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -7863,12 +7863,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>双人剧本从婚纱照开机 #拍摄花絮 #婚纱照</t>
+          <t>今日份在厦门鼓浪屿的拍摄花絮 ﻿#婚纱照花絮﻿ ﻿#旅拍﻿ ﻿#厦门鼓浪屿﻿ ﻿#婚纱照推荐﻿ ﻿#备婚</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
+          <t>woxjrqDwAAOplA3yzywZibBNr744hIDQ</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -7878,12 +7878,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>原来幸福真的会从照片里溢出来！ #婚纱照花絮 #我们拍婚纱了 #备婚日常 #旅拍 #铂爵旅拍婚纱照</t>
+          <t>把你们拍好看是我的使命 ﻿#婚纱照花絮﻿ ﻿#拍摄花絮﻿ ﻿#婚纱照推荐﻿ ﻿#旅拍</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAvVeOiH3YlyDIup-ZGIiqCQ</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -7893,12 +7893,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>狠狠心动了💕轻法式就是氛围感的神！ #拍摄花絮 #每个女孩的婚纱梦 #法式婚纱照 #铂爵旅拍婚纱照</t>
+          <t>把你们拍好看是我的使命 ﻿#婚纱照花絮﻿ ﻿#拍摄花絮﻿ ﻿#婚纱照推荐﻿ ﻿#旅拍</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAXlyaketWmpolNyI6K37wZw</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -7908,12 +7908,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>“爱在黄昏日落时”🌇 #旅拍婚纱照 #一起看海 #备婚日常 #铂爵旅拍婚纱照</t>
+          <t>谁懂啊！微胖肉肉新娘在大理拍到了人生照片！ #大码女生 #大理婚纱照 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAI55UzplROVKf2WTzmiekWQ</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -7923,12 +7923,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>“爱情哪有那么复杂 能让你笑的 就是对的人” #婚纱照花絮 #我们拍婚纱了 #拍摄花絮 #客片分享 #旅拍</t>
+          <t>谁懂啊！微胖肉肉新娘在大理拍到了人生照片！ #大码女生 #大理婚纱照 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAVOOLafI0bptm3PNnvUocAQ</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -7938,12 +7938,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>谁懂原相机直出的婚纱照花絮啊~ #旅拍 #婚纱照 #我的婚纱照 #婚纱照风格 #目的地婚礼</t>
+          <t>美晕了！！拍到了我的人生婚纱照 #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA9NcFA2KvKhsLhWzlONyiaA</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -7953,12 +7953,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>“承认吧 你也很为我着迷~” #旅拍 #旅拍婚纱照 #婚纱照 #拍摄花絮 #旅拍婚纱照</t>
+          <t>美晕了！！拍到了我的人生婚纱照 #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAuuVd3AwaEwS3Uuh2uiIj5Q</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -7968,12 +7968,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>婚纱照拍摄花絮 我愿称之为“幸福” #巴厘岛旅拍 #旅拍婚纱照 #婚纱照 #婚纱照风格 #婚纱照花絮</t>
+          <t>美晕了！！拍到了我的人生婚纱照 #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAfMXKSINyMfvS3jC4-y8hTg</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -7983,12 +7983,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>妆前妆后的反差，见证幸福的开始 #妆前妆后 #真实客照#旅拍 #拍摄花絮 #婚纱照</t>
+          <t>婚纱照就是甜蜜的密码呀！ #婚纱照花絮 #每个女孩的婚纱 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA7jP5Fg57G5r2JzuFnNOPWg</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -7998,12 +7998,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>双人剧本从婚纱照正式开机 #婚纱照 #客片分享 #婚紗照</t>
+          <t>海边日落！谁懂金色婚纱照的含金量！ #婚纱照 #和喜欢的人在一起 #铂爵旅拍婚纱照 #海边婚纱照</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAkXhp8y1Vt-obHv0uJy1X7A</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -8013,12 +8013,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>正片还在路上，花絮先到 #婚纱照花絮 #三亚婚纱照</t>
+          <t>海边日落！谁懂金色婚纱照的含金量！ #婚纱照 #和喜欢的人在一起 #铂爵旅拍婚纱照 #海边婚纱照</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyXi0QmluvryLI-5U1eYxlQ</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -8028,12 +8028,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>今天簪花 今天漂亮 #簪花 #簪花婚纱照</t>
+          <t>论一个会引导的摄影师的重要性！ #婚纱照 #备婚 #旅拍婚纱照 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAkXhp8y1Vt-obHv0uJy1X7A</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -8043,12 +8043,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>分享我的备婚日常 #婚纱照花絮 #镜头是爱意的具象化</t>
+          <t>论一个会引导的摄影师的重要性！ #婚纱照 #备婚 #旅拍婚纱照 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyXi0QmluvryLI-5U1eYxlQ</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -8058,12 +8058,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>这次不当甜妹💥当芳心纵火犯❗️ #婚纱照 #我们拍婚纱了 #旅拍 #铂爵旅拍婚纱照</t>
+          <t>🎬婚纱照Vlog 💗体验女明星的一天 #婚纱照花絮 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAzbZCIWP0_xeDP-tIHjHJ6Q</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -8073,12 +8073,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>终于! ! 轮到我拍电影感婚纱照 🤍 #旅拍婚纱照 #每个女孩的婚纱梦 #旅拍 #铂爵旅拍婚纱照</t>
+          <t>🎬婚纱照Vlog 💗体验女明星的一天 #婚纱照花絮 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAuuVd3AwaEwS3Uuh2uiIj5Q</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -8088,12 +8088,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>肆意绽放的野玫瑰，是我爱你的情感外放❗️ #婚纱照花絮 #拍出电影感 #每个女孩的婚纱梦 #铂爵旅拍婚纱照</t>
+          <t>🎬婚纱照Vlog 💗体验女明星的一天 #婚纱照花絮 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAfMXKSINyMfvS3jC4-y8hTg</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -8103,12 +8103,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>婚纱照花絮比正片还甜是怎么回事！ #每个女孩的婚纱梦 #婚纱照 #美出高级感 #铂爵旅拍婚纱照</t>
+          <t>欢迎收看00后女生在丽江的婚纱照vlog #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAHtKrYpNgTffxeDT2Gtz1vA</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -8118,12 +8118,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>看日出真的是一件浪漫又美好的事 #日出 #大理</t>
+          <t>欢迎收看00后女生在丽江的婚纱照vlog #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAATfOclZY1kHkylsbdUEBJCQ</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -8133,12 +8133,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>普通摄影师拍婚纱照都在做这些事 #婚纱照花絮 #拍摄花絮 #我们拍婚纱了</t>
+          <t>被朋友问疯了！我的丽江婚纱照也太酷了吧 #婚纱照花絮 #高级感黑色婚纱照怎么拍 #高级感 #丽江婚纱照 #铂爵旅拍</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAHtKrYpNgTffxeDT2Gtz1vA</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -8148,12 +8148,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>浪漫的爱情总需要留一组特别的照片做纪念 #客片分享 #婚纱照花絮 #每个女孩的婚纱梦</t>
+          <t>被朋友问疯了！我的丽江婚纱照也太酷了吧 #婚纱照花絮 #高级感黑色婚纱照怎么拍 #高级感 #丽江婚纱照 #铂爵旅拍</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAATfOclZY1kHkylsbdUEBJCQ</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -8163,12 +8163,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>喜欢花 喜欢海 喜欢日落 喜欢你. #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了</t>
+          <t>不动声色的东方美学❤️太有氛围感了 #东方美学 #国风古韵 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAjN_FvkJrjOZTbMtzESzEHA</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -8178,12 +8178,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>在大理的时间像云一样漂浮 #旅拍婚纱照 #旅拍 #大理</t>
+          <t>不动声色的东方美学❤️太有氛围感了 #东方美学 #国风古韵 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAgcvKxkipQiNpJh16m4oj5A</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -8193,12 +8193,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>别人拍婚纱照是摆拍，我们是大型撒狗粮真人秀 #巴厘岛 #婚纱照</t>
+          <t>春日限定~跑进明媚又鲜活的春天🌸 #这是属于春天的氛围感 #婚纱照 #镜头是爱意的具象化 #铂爵旅拍</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAA1upIIdlOnVlQEtWZHS9z8Q</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -8208,12 +8208,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>带着婚纱去旅行，在每个风景里说’我愿意 #婚纱照花絮 #每个女孩的婚纱梦</t>
+          <t>春日限定~跑进明媚又鲜活的春天🌸 #这是属于春天的氛围感 #婚纱照 #镜头是爱意的具象化 #铂爵旅拍</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAufliuMSfUpZwGWdfBJBIoA</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -8223,12 +8223,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>2个小时直接一个无痛微整 #婚纱照花絮 #素人改造 #变美</t>
+          <t>春日限定~跑进明媚又鲜活的春天🌸 #这是属于春天的氛围感 #婚纱照 #镜头是爱意的具象化 #铂爵旅拍</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAA-t5GSmZbI9tp7Tf19llwYQ</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -8238,12 +8238,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>欢迎收看90后婚纱化妆师在三亚的一天 #vlog #婚纱照 #铂爵旅拍婚纱照</t>
+          <t>太好了是甜妹🎀～中式喜嫁婚纱照有救了 新中式喜嫁婚服+目的地婚礼现场 甜蜜俏皮又充满仪式感 直接统一了全家人审美 怎么都看不腻 ﻿#旅拍﻿ ﻿#婚纱照风格﻿ ﻿#喜嫁婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#旅拍婚纱照﻿ ﻿#备婚﻿ ﻿#客片分享</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -8253,12 +8253,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>救命！婚纱照拍出了热恋即视感 #婚纱照花絮 #每个女孩的婚纱梦 #旅拍 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+          <t>我真的被这组韩式教堂婚纱照美到失语了 喜欢仪式感的姐妹们可以直接冲 轻轻松松拍出人生照片📷 ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#我的婚纱照﻿ ﻿#备婚</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -8268,7 +8268,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>新中式园林 | 婚纱照里的东方浪漫 #婚纱照风格 #客片分享 #总要拍一套旗袍中国风吧 #花絮拍摄</t>
+          <t>森系仙女新娘🦋体验卡➕1 万物与少女皆是明媚与自由 备婚必拍的森系婚纱照 ﻿#婚纱照风格﻿ ﻿#婚纱照﻿ ﻿#旅拍﻿ ﻿#森系婚纱照﻿ ﻿#备婚﻿ ﻿#客片分享﻿ ﻿#备婚攻略</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -8283,7 +8283,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>还原美貌🆚普通女孩的婚纱照妆前妆后对比 #妆前妆后 #婚纱照 #旅拍婚纱照 #我的婚纱照</t>
+          <t>云南的浪漫❤️洱海占了一半 大理旅拍 拍摄地：大理 使人沉醉夏日的微风 带着暖暖的温度 温柔的质感里 散发着天然的气息 ﻿#客片分享﻿ ﻿#大理婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#备婚</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -8298,12 +8298,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>在爱与被爱里 踏入新的旅程 #婚纱照花絮 #客片分享 #我们拍婚纱了 #婚紗照 #旅拍</t>
+          <t>素人拍这样的三亚婚纱照看一千遍都不会腻吧 📥左下角私信扣【1】获取更多优惠活动 📷拍摄：@伯爵旅拍 💯真实客片 / 椰林、大海、草坪🌴 你和我邂逅自然 空气中满是阳光和海水的味道🌊 深沉的绿意里藏满了我们浓浓的爱意 / 🔸服务套餐： 【价格】一价全包，无任何隐形消费 【妆造】8服8造+内外景双拍+风格任选 【底片】底片全送+产品包邮到家 【产品】相框+相册+摆台+迎宾海报... ------------------------------------- 关注&amp;私信回复“1”获取最新报价 关注&amp;私信回复“2”获取更多客片 ------------------------------------- #铂爵旅拍 #旅拍婚纱照 #旅拍 #海景婚纱照 #婚纱照 #伯爵旅拍 #三亚婚纱照 #三亚婚纱照推荐 #三亚婚纱照旅拍 #三亚婚纱照攻略</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -8313,12 +8313,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>浪漫到心坎儿里的夜景婚纱照✨ #旅拍 #旅拍婚纱照 #婚纱照风格 #夜景婚纱照 #备婚</t>
+          <t>厦门婚纱照客片｜春夏季的心动信号💓 📥左下角私信扣【1】获取更多优惠活动 📷拍摄：@伯爵旅拍 💯真实客片 / 晨曦为蕾丝裙摆镀上蔷薇色糖霜 每一寸光晕都在编织少女心事的柔焦滤镜 镜头捕捉的呼吸瞬间 都浸满荔枝汽水的清甜🍃   像闯入宫崎骏笔下的精灵花园 蓬松头纱藏不住眼角漫溢的草莓香气 奔跑时扬起的薄纱涟漪 是春风写下的三行情诗 / 🔸服务套餐： 【价格】一价全包，无任何隐形消费 【妆造】8服8造+内外景双拍+风格任选 【底片】底片全送+产品包邮到家 【产品】相框+相册+摆台+迎宾海报... ------------------------------------- 关注&amp;私信回复“1”获取最新报价 关注&amp;私信回复“2”获取更多客片 ------------------------------------- #铂爵旅拍 #旅拍婚纱照 #旅拍 #婚纱照 #外景婚纱照 #厦门婚纱照 #伯爵旅拍 #森系婚纱照 #浪漫婚纱照 #婚纱照风格</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -8328,12 +8328,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>厦门婚纱照鼓浪屿教堂真的很出片！ #旅拍 #旅拍婚纱照 #婚纱照 #婚纱照风格 #我的婚纱照</t>
+          <t>新疆赛里木湖·公路婚纱照｜把爱情装进风里 📥左下角私信扣【1】获取更多优惠活动 📷拍摄：@伯爵旅拍 💯真实客片 / 谁说婚纱照一定要穿婚纱？ 我们选择用便装演绎最真实的浪漫 在赛里木湖的大道上 把爱情装进后备箱 一路向西🚗   停车 牵手 奔跑 在无人的公路上放肆大笑💗 镜头捕捉到的不是pose 而是爱情最松弛的模样   我们相拥而立 身后是整片赛里木湖的温柔 这一刻 连风都在为我们祝福🎉 / 🔸服务套餐： 【价格】一价全包，无任何隐形消费 【妆造】8服8造+内外景双拍+风格任选 【底片】底片全送+产品包邮到家 【产品】相框+相册+摆台+迎宾海报... ------------------------------------- 关注&amp;私信回复“1”获取最新报价 关注&amp;私信回复“2”获取更多客片 ------------------------------------- #新疆旅拍 #赛里木湖 #公路婚纱照 #小众婚纱照 #旅拍婚纱照#新疆婚纱照 #铂爵旅拍 #旅拍 #旅拍婚纱照 #纪实婚纱照</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -8343,12 +8343,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>奉劝那些想要去鼓浪屿拍婚纱照的姐妹们~ 真的很出片啊，给大家分享今天拍摄的花絮，尊嘟超美#婚纱照风格 #每个女孩的婚纱梦 #客片分享 #旅拍 #真实客照</t>
+          <t>🏔️川西秘境婚纱照｜把心动藏进雪山与草甸 📥左下角私信扣【1】获取更多优惠活动 📷拍摄：@伯爵旅拍 💯真实客片 / 在川西 我们选择与风共舞💃 让裙摆沾染青草香 站在海拔4000米的垭口 身后是连绵的雪山🏔️与经幡 你牵着我的手 笑得比格桑花还灿烂 这一刻 连呼吸都是自由的   奔跑在无边的草甸上🍃 裙角沾满露珠与阳光 镜头捕捉到的不是刻意 而是爱情最本真的模样 / 🔸服务套餐： 【价格】一价全包，无任何隐形消费 【妆造】8服8造+内外景双拍+风格任选 【底片】底片全送+产品包邮到家 【产品】相框+相册+摆台+迎宾海报... ------------------------------------- 关注&amp;私信回复“1”获取最新报价 关注&amp;私信回复“2”获取更多客片 ------------------------------------- #川西旅拍 #川西婚纱照 #小众婚纱照 #旅拍婚纱照 #铂爵旅拍 #旅拍 #雪山婚礼 #川西婚纱照推荐 #外景婚纱照 #伯爵旅拍</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -8358,12 +8358,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>美女和她的天菜男友 厦门旅拍婚纱照 #旅拍 #旅拍婚纱照 #厦门婚纱照 #客片分享 #我的婚纱照</t>
+          <t>🤖✨ AI婚纱照｜当未来科技遇见永恒浪漫 📥左下角私信扣【1】获取更多优惠活动 📷拍摄：@伯爵旅拍 / 谁说婚纱照只能是现实场景？ 在AI的世界里 我们打破次元壁 让爱情穿梭于虚拟与现实之间 每一帧都是独一无二的数字艺术   站在全息投影的星河中✨ 身后是流动的极光与星云 你牵着我的手 笑容比数据流还要璀璨 这一刻 连代码都在为我们跳动 / 🔸服务套餐： 【价格】一价全包，无任何隐形消费 【妆造】8服8造+内外景双拍+风格任选 【底片】底片全送+产品包邮到家 【产品】相框+相册+摆台+迎宾海报... ------------------------------------- 关注&amp;私信回复“1”获取最新报价 关注&amp;私信回复“2”获取更多客片 ------------------------------------- #AI婚纱照 #科技婚纱照 #未来风婚纱照 #数字艺术婚纱 #深圳婚纱照 #婚纱照 #内景婚纱照 #铂爵旅拍 #室内婚纱照 #婚纱照风格</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -8373,12 +8373,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>😘甜炸了！这个爱笑的新娘子简直是幸福代言 #拍婚纱婚纱花絮 #拍摄花絮 #真实客照 #婚纱照 #客片分享</t>
+          <t>当室内婚纱照与AI结合…内景风格更新 📥左下角私信扣【1】获取更多优惠活动 📷拍摄：@伯爵旅拍 / 漫步在AI构建的梦幻花园 花瓣由像素组成 却散发着真实的芬芳🌼 镜头捕捉到的不是简单的影像 而是科技与爱情碰撞的火花🔥   当虚拟与现实完美融合 我们相拥而立 身后是整个数字宇宙的祝福 这一刻 连AI都在为我们的爱情点赞 / 🔸服务套餐： 【价格】一价全包，无任何隐形消费 【妆造】8服8造+内外景双拍+风格任选 【底片】底片全送+产品包邮到家 【产品】相框+相册+摆台+迎宾海报... ------------------------------------- 关注&amp;私信回复“1”获取最新报价 关注&amp;私信回复“2”获取更多客片 ------------------------------------- #AI婚纱照 #科技婚纱照 #未来风婚纱照 #数字艺术婚纱 #深圳婚纱照 #深圳婚纱照哪家好 #婚纱照 #高级感婚纱照 #室内婚纱照 #浪漫婚纱照</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -8388,12 +8388,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>谁懂《爱在日落黄昏时》的含金量！ #海边婚纱照 #婚纱照 #铂爵旅拍婚纱照</t>
+          <t>这样的婚纱照怎么能不心动呢❓ #婚纱照 #旅拍 #备婚 #旅拍婚纱照 #婚纱照花絮 #氛围感婚纱照 #婚纱照客片 #厦门婚纱照 #森系婚纱照</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -8403,12 +8403,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>沉浸式体验厦门旅拍婚纱摄影师的一天 #婚纱照花絮 #摄影师日常 #拍摄花絮 #婚纱摄影 #婚紗照</t>
+          <t>我的丽江目的地婚礼好像踩雷了.....❌ 其实也不算目的地婚礼，是拍婚纱照的一种风格， 所以比目的地婚礼便宜很多， 我选的是丽江，风景真的好美，怪不得这么多人来 ✅ 吐血整理避坑攻略 建议收藏！ ✨ 前期准备 1.确定预算范围 别被网上美图冲昏头脑 量力而行 2.选地点要三思 我对比了几个地方，最后选了丽江 海拔适中 风景绝美 性价比也高 ✨ 选商家避坑指南 1. 一定要问清楚套餐包含内容，有没有隐形费用 2. 多看客片！多看客片！ 样片都是骗人的 客片才真实 我看了100+组客片才定下来 ✨ 现场避坑 带够保暖衣物 别像我冻得直哆嗦还要强颜欢笑 ✨ 后期避坑 1.确认精修张数，选片保持理性 2.底片是否全送，多久给，要提前说好 最后想说 虽然过程很累 但是拍照的过程很开心， 真的觉得一切都值得！！ 期待成片啦！ 希望这篇攻略能帮到备婚的你们 #目的地婚礼 #婚礼避坑 #备婚攻略 #丽江婚礼 #婚礼经验分享#婚纱照 #丽江婚纱照 #旅拍婚纱照 #雪山婚纱照 #旅拍推荐</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -8418,12 +8418,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>办一场超绝目的地婚礼吧～鼓浪屿拍摄花絮 #婚纱照花絮 #客片分享 #每个女孩的婚纱梦 #旅拍 #我们拍婚纱了</t>
+          <t>来厦门拍婚纱照啦！幸好没踩雷！#真实客照 #旅拍 #婚纱照 #厦门婚纱照 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -8433,12 +8433,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>爱在日落黄昏时 #婚纱照花絮 #客片分享 #婚紗照 #旅拍 #每个女孩的婚纱梦</t>
+          <t>婚纱照安全下车啦！厦门真的好美！#婚纱照 #旅拍 #真实客照 #厦门婚纱照 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -8448,12 +8448,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>花絮比正片还甜的三亚婚纱照！😍嗑上头了 #三亚旅拍 #三亚婚纱照 #旅拍婚纱照 #客片分享 #我的婚纱照</t>
+          <t>我的婚纱照vlog｜欢迎收看我的备婚日记之拍婚纱照#婚纱照 #旅拍 #真实客照 #每个女孩的婚纱梦 #厦门婚纱照</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -8463,12 +8463,12 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>是普通女生也能驾驭的海边婚纱照呀 👌 #三亚旅拍 #三亚婚纱照 #婚纱照 #婚纱照风格 #备婚</t>
+          <t>来厦门拍婚纱照啦！没踩雷！#婚纱照 #旅拍 #真实客照 #每个女孩的婚纱梦 #我的婚纱照</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -8478,12 +8478,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>🏝𝙎𝙖𝙣𝙔𝙖 ·✌🏖️沙滩·🌊海边 三亚旅拍 #三亚旅拍 #旅拍 #旅拍婚纱照 #我的婚纱照 #备婚</t>
+          <t>初春当然要拍生命力的森系婚纱照呀！客片 ﻿#森系婚纱照﻿ ﻿#婚纱照的生命力﻿ ﻿#客片分享﻿ ﻿#真实客片分享﻿ ﻿#外景婚纱照﻿ ﻿#草坪婚纱照﻿ ﻿#婚纱照花絮</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAqSVDV7mnrv_Lv7zZ8BwrqA</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -8493,12 +8493,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>被这组丽江旅拍婚纱照客片硬控了15s~ #云南旅拍 #云南旅拍婚纱照 #婚纱照 #婚纱照风格 #备婚</t>
+          <t>把松弛感和仪式感揉进婚纱照里！厦门婚纱照 ﻿#森系婚纱照﻿ ﻿#婚纱照花絮﻿ ﻿#外景婚纱照﻿ ﻿#仪式感婚纱照﻿ ﻿#高级感婚纱照﻿ ﻿#氛围感婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#教堂婚纱照</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAqSVDV7mnrv_Lv7zZ8BwrqA</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -8508,12 +8508,12 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>“苍山下，洱海边”🌊大理旅拍婚纱照 #婚纱照花絮 #客片分享 #每个女孩的婚纱梦 #拍摄花絮</t>
+          <t>在三亚6000多拍的婚纱照！终于出成片啦！ #婚纱照成片 #婚纱照 #婚纱照分享 #三亚婚纱照</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAqSVDV7mnrv_Lv7zZ8BwrqA</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -8523,12 +8523,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>大理的浪漫洱海占一半🌊 #旅拍 #旅拍婚纱照 #婚纱照 #备婚 #我的婚纱照</t>
+          <t>谁能拒绝波光粼粼的海边婚纱照呢，三亚客片 波光粼粼的海面 和落日下的橘子海 是浪漫氛围感的神！   洁白的婚纱随风轻轻摇曳 在海浪的低吟中翩翩起舞   是普通人也能驾驭的海边婚纱照呀！ - 服务套餐： ✅价格：一价全包，无任何隐形消费 ✅妆造：8服8造+内外景双拍+风格任选 ✅底片：底片全送+产品包邮到家 ✅产品：相框+相册+摆台+迎宾海报... ✅赠送：机票补贴+3天2晚酒店入住 ✅售后：全程管家式服务+不满意重拍 - 更多风格+拍同款：﻿@铂爵旅拍三亚店﻿ ✅关注&amp;私信回复“1”获取最新报价 ✅关注&amp;私信回复“2”获取更多客片 ------------------------------------ ﻿#旅拍婚纱照﻿ ﻿#2025婚纱照﻿ ﻿#伯爵旅拍﻿ ﻿#客片分享﻿ ﻿#婚纱照﻿ ﻿#真实客片分享﻿ ﻿#小众婚纱照﻿ ﻿#海边婚纱照﻿ ﻿#三亚婚纱照﻿ ﻿#三亚旅拍</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAqSVDV7mnrv_Lv7zZ8BwrqA</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -8538,12 +8538,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>苍山下⛰️ 洱海旁🌊大理旅拍婚纱照 #婚纱照 #婚纱照风格 #我的婚纱照 #云南旅拍 #云南旅拍婚纱照</t>
+          <t>再次被云杉坪美到555，藏进森林里的爱意 不是只拍三亚婚纱照！ 还有大理丽江厦门深圳杭州川西新疆巴厘岛等等 - 今日分享丽江的云杉坪！ 雪山下的小秘境 背靠雪山 辽阔的草坪 富有“小瑞士”之称的衫林草甸 不挑天气不挑季节 都超出片！ - 服务套餐： ✅价格：一价全包，无任何隐形消费 ✅妆造：8服8造+内外景双拍+风格任选 ✅底片：底片全送+产品包邮到家 ✅产品：相框+相册+摆台+迎宾海报... ✅赠送：机票补贴+3天2晚酒店入住 ✅售后：全程管家式服务+不满意重拍 - 更多风格+拍同款：﻿@铂爵旅拍三亚店﻿ ✅关注&amp;私信回复“1”获取最新报价 ✅关注&amp;私信回复“2”获取更多客片 ------------------------------------ ﻿#旅拍婚纱照﻿ ﻿#2025婚纱照﻿ ﻿#伯爵旅拍﻿ ﻿#云杉坪﻿ ﻿#丽江旅拍﻿ ﻿#丽江婚纱照﻿ ﻿#三亚婚纱照﻿ ﻿#森系婚纱照﻿ ﻿#外景婚纱照﻿ ﻿#雪山婚纱照</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAqSVDV7mnrv_Lv7zZ8BwrqA</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -8553,12 +8553,12 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>大理旅拍 听了风的话 去了想去的地方~ #旅拍 #旅拍婚纱照 #婚纱照 #备婚 #云南旅拍</t>
+          <t>春天啊~万物与少女皆是明媚与自由 春日 甜妹的主战场 感受爱意弥漫林间 浪漫揉碎在阳光的斑驳中 一袭粉纱，朦胧 灵动 如春日的散文诗，明媚 生动 这才是春夏该拍的风格！ - 服务套餐： ✅价格：一价全包，无任何隐形消费 ✅妆造：8服8造+内外景双拍+风格任选 ✅底片：底片全送+产品包邮到家 ✅产品：相框+相册+摆台+迎宾海报... ✅赠送：机票补贴+3天2晚酒店入住 ✅售后：全程管家式服务+不满意重拍 - 更多风格+拍同款：﻿﻿@铂爵旅拍三亚店﻿﻿ ✅关注&amp;私信回复“1”获取最新报价 ✅关注&amp;私信回复“2”获取更多客片 ------------------------------------ ﻿#旅拍婚纱照﻿ ﻿#2025婚纱照﻿ ﻿#伯爵旅拍﻿ ﻿#少女婚纱照﻿ ﻿#春日少女感婚纱照﻿ ﻿#森系婚纱照﻿ ﻿#草坪婚纱照﻿ ﻿#外景婚纱照﻿ ﻿#甜美浪漫婚纱照</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAqSVDV7mnrv_Lv7zZ8BwrqA</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -8568,12 +8568,12 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>欢迎收看00后勇闯大理旅拍婚纱照volg #旅拍 #旅拍婚纱照 #婚纱照 #婚纱照风格 #我的婚纱照</t>
+          <t>初春当然要拍生命力的森系婚纱照啦！ 清新治愈的草坪婚纱照 太适合春天啦~   轻柔的白纱拂过草坪 将盈盈绿意搬进婚纱照 真的好爱这氛围感~ 满屏的生命力和自由气息~ - 服务套餐： ✅价格：一价全包，无任何隐形消费 ✅妆造：8服8造+内外景双拍+风格任选 ✅底片：底片全送+产品包邮到家 ✅产品：相框+相册+摆台+迎宾海报... ✅赠送：机票补贴+3天2晚酒店入住 ✅售后：全程管家式服务+不满意重拍 - 更多风格+拍同款：﻿@铂爵旅拍三亚店﻿ ✅关注&amp;私信回复“1”获取最新报价 ✅关注&amp;私信回复“2”获取更多客片 ------------------------------------ ﻿#旅拍婚纱照﻿ ﻿#2025婚纱照﻿ ﻿#伯爵旅拍﻿ ﻿#森系婚纱照﻿ ﻿#婚纱照的生命力﻿ ﻿#草坪婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#外景婚纱照﻿ ﻿#小众婚纱照﻿ ﻿#三亚旅拍</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAqSVDV7mnrv_Lv7zZ8BwrqA</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -8583,7 +8583,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>啊啊春天就是甜妹主战场呀🌿 #婚纱照 #旅拍婚纱照 #客片分享 #森系婚纱照 #铂爵旅拍</t>
+          <t>特种兵新娘快乐结婚的一天🎈厦门旅拍婚纱照 #厦门旅拍 #厦门婚纱照 #旅拍 #旅拍婚纱照 #拍摄花絮</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -8598,12 +8598,12 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>笑着把青春存档在婚纱照里啦💾 #婚纱照花絮 #拍摄花絮 #客片分享 #铂爵旅拍婚纱照</t>
+          <t>特种兵新娘快乐结婚的一天🎈厦门旅拍婚纱照 #厦门旅拍 #厦门婚纱照 #旅拍 #旅拍婚纱照 #拍摄花絮</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -8613,7 +8613,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>👰🏻‍♀️mini vlog💕我们去拍婚纱照啦 #婚纱照花絮 #客片分享 #拍摄花絮 #铂爵旅拍婚纱照</t>
+          <t>特种兵新娘快乐结婚的一天🎈厦门旅拍婚纱照 #厦门旅拍 #厦门婚纱照 #旅拍 #旅拍婚纱照 #拍摄花絮</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -8628,12 +8628,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>同一套婚纱照竟然可以拍出两种风格！ #婚纱照花絮 #客片分享 #每个女孩的婚纱梦 #铂爵旅拍婚纱照</t>
+          <t>《客照作品》厦门鼓浪屿！教堂仪式感婚纱照 #婚纱照花絮 #每个女孩的婚纱梦 #客片分享 #拍摄花絮</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -8643,12 +8643,12 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>这套婚纱照能召唤全糖去冰的快乐 #婚纱照花絮 #我们拍婚纱了 #客片分享 #铂爵旅拍婚纱照</t>
+          <t>《客照作品》厦门鼓浪屿！教堂仪式感婚纱照 #婚纱照花絮 #每个女孩的婚纱梦 #客片分享 #拍摄花絮</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -8658,12 +8658,12 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>逆光拍摄秘诀：眼睛眯成缝也要假装深情 #婚纱照花絮 #每个女孩的婚纱梦</t>
+          <t>《客照作品》厦门鼓浪屿！教堂仪式感婚纱照 #婚纱照花絮 #每个女孩的婚纱梦 #客片分享 #拍摄花絮</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -8673,12 +8673,12 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>baby我们的感情肯定看得清 #旅拍婚纱照 #满眼都是你的人才配的上你的爱</t>
+          <t>给无声女孩拍婚纱照的一天</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAARjTBOjoiE7fKljLyj7eA4w</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -8688,7 +8688,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>和爱人一起去看海吧 #婚纱照花絮 #每个女孩的婚纱梦</t>
+          <t>如果幸福是酵母，那我就是一块蓬松的小面包 ﻿#厦门婚纱照﻿ ﻿#备婚﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -8703,12 +8703,12 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>阳光是最好的滤镜 #一起看海 #海边拍照 #客片分享</t>
+          <t>如果幸福是酵母，那我就是一块蓬松的小面包 ﻿#厦门婚纱照﻿ ﻿#备婚﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -8718,12 +8718,12 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>雨天必拍的宿命感婚纱照 #婚纱照花絮 #客片分享 #婚紗照</t>
+          <t>如果幸福是酵母，那我就是一块蓬松的小面包 ﻿#厦门婚纱照﻿ ﻿#备婚﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -8733,12 +8733,12 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>春日花仙子妆🧚🏻‍♀️又到了鲜花浪漫的季节 #森系婚纱照 #妆造 #旅拍 #旅拍婚纱照 #备婚</t>
+          <t>性价比爆棚！💰 10s了解旅拍婚纱照套餐 ﻿#旅拍婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#旅拍婚纱照价格﻿ ﻿#铂爵旅拍婚纱照﻿ ﻿#铂爵旅拍﻿ ﻿#丽江婚纱照﻿ ﻿#大理婚纱照﻿ ﻿#三亚婚纱照</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C554" t="n">
@@ -8748,12 +8748,12 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>bgm一响是谁又心动了💗森系婚纱照 #旅拍 #旅拍婚纱照 #备婚 #婚纱照 #森系</t>
+          <t>性价比爆棚！💰 10s了解旅拍婚纱照套餐 ﻿#旅拍婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#旅拍婚纱照价格﻿ ﻿#铂爵旅拍婚纱照﻿ ﻿#铂爵旅拍﻿ ﻿#丽江婚纱照﻿ ﻿#大理婚纱照﻿ ﻿#三亚婚纱照</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -8763,7 +8763,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>姐妹们 真的没有进剧组拍戏~这是我在厦门拍的婚纱照 #优雅永不过时#中式婚纱照 #凤冠霞帔 #婚纱照 #旅拍</t>
+          <t>性价比爆棚！💰 10s了解旅拍婚纱照套餐 ﻿#旅拍婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#旅拍婚纱照价格﻿ ﻿#铂爵旅拍婚纱照﻿ ﻿#铂爵旅拍﻿ ﻿#丽江婚纱照﻿ ﻿#大理婚纱照﻿ ﻿#三亚婚纱照</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -8778,37 +8778,37 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>今日份的浪漫 婚纱照花絮 #旅拍婚纱照 #婚纱照 #备婚 #旅拍 #厦门婚纱照</t>
+          <t>有点癫但超出片的pose！为了拍婚纱照我也是拼了！ #每个女孩的婚纱梦 #韩女拍照技巧 #拍照技巧 #婚纱照</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
         </is>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>我们自由而热烈～我们的婚纱照也是 #丽江旅拍 #客片分享 #丽江婚纱照 #旅拍 #旅拍婚纱照</t>
+          <t>有点癫但超出片的pose！为了拍婚纱照我也是拼了！ #每个女孩的婚纱梦 #韩女拍照技巧 #拍照技巧 #婚纱照</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>厦门鼓浪屿婚纱照 掌管氛围感的神~ #旅拍 #旅拍婚纱照 #婚纱照 #我的婚纱照 #备婚</t>
+          <t>终于蹲到了！原来8服8造婚纱照套餐这么划算 全国旅拍城市：厦门三亚大理丽江深圳杭州川西新疆巴厘岛... 服务套餐： ✅价格：一价全包，无任何隐形消费 ✅套餐：3000元婚纱照抵用券 ✅妆造：8服8造+内外景双拍+风格任选 ✅服务：底片全送+产品包邮到家 ✅产品：相框+相册+摆台+迎宾海报... ✅售后：全程管家式服务+不满意重拍 ------------------------------------- 🎀关注&amp;私信回复“1”获取最新报价 🎀关注&amp;私信回复“2”获取更多客片 ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#丽江婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#备婚﻿ ﻿#客片分享﻿ ﻿#婚纱照套餐</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -8823,12 +8823,12 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>爱让每个表情都发光 #婚纱照花絮 #春季氛围感照片 #客片分享 #铂爵旅拍婚纱照</t>
+          <t>婚纱照套餐推荐 一价全包➕内外景双拍 服务套餐： ✅价格：一价全包，无任何隐形消费 ✅妆造：8服8造+内外景双拍+风格任选 ✅底片：底片全送+产品包邮到家 ✅产品：相框+相册+摆台+迎宾海报... ✅售后：全程管家式服务+不满意重拍</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -8838,12 +8838,12 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>绝美复古婚纱照🪄我愿称之为氛围感之神❗ #婚纱照花絮 #拍摄花絮 #客片分享 #铂爵旅拍婚纱照</t>
+          <t>特种兵新娘快乐结婚的一天🎈厦门旅拍婚纱照 #厦门旅拍 #厦门婚纱照 #旅拍 #旅拍婚纱照 #拍摄花絮</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAlvI0BxMzitIvev8QJy-VMw</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -8853,12 +8853,12 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>欢迎收看厦门婚纱照摄影师的一日vlog #婚纱照花絮 #客片分享 #镜头是爱意的具象化 #铂爵旅拍婚纱照</t>
+          <t>《客照作品》厦门鼓浪屿！教堂仪式感婚纱照 #婚纱照花絮 #每个女孩的婚纱梦 #客片分享 #拍摄花絮</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAlvI0BxMzitIvev8QJy-VMw</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -8868,12 +8868,12 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>这套婚纱照能申请吉尼斯甜蜜纪录 #婚纱照花絮 #客片分享 #拍摄花絮 #铂爵旅拍婚纱照</t>
+          <t>给无声女孩拍婚纱照的一天</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAlQKSc-ocrL93dDrOzc50Fw</t>
         </is>
       </c>
       <c r="C563" t="n">
@@ -8883,7 +8883,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>救命！这套婚纱照能治愈所有不开心 #婚纱照花絮 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+          <t>如果幸福是酵母，那我就是一块蓬松的小面包 ﻿#厦门婚纱照﻿ ﻿#备婚﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -8898,12 +8898,12 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>浪漫满屋💐花房里的少女！ #妆造 #客片分享 #拍摄花絮 #婚纱照 #备婚</t>
+          <t>性价比爆棚！💰 10s了解旅拍婚纱照套餐 ﻿#旅拍婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#旅拍婚纱照价格﻿ ﻿#铂爵旅拍婚纱照﻿ ﻿#铂爵旅拍﻿ ﻿#丽江婚纱照﻿ ﻿#大理婚纱照﻿ ﻿#三亚婚纱照</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAlvI0BxMzitIvev8QJy-VMw</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -8913,27 +8913,27 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>总要去趟三亚吧，吹吹西岛的晚风，看看椰梦长廊的晚霞.... 去到天涯海角，品尝正宗的椰子鸡，在分界洲岛感受海南的夏天#三亚旅拍 #旅拍婚纱照 #三亚婚纱照 #客片分享 #备婚</t>
+          <t>有点癫但超出片的pose！为了拍婚纱照我也是拼了！ #每个女孩的婚纱梦 #韩女拍照技巧 #拍照技巧 #婚纱照</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAlvI0BxMzitIvev8QJy-VMw</t>
         </is>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>🎬婚纱照Vlog 💗体验女明星的一天 #婚纱照花絮 #我们拍婚纱了 #客片分享 #旅拍 #婚紗照</t>
+          <t>终于蹲到了！原来8服8造婚纱照套餐这么划算 全国旅拍城市：厦门三亚大理丽江深圳杭州川西新疆巴厘岛... 服务套餐： ✅价格：一价全包，无任何隐形消费 ✅套餐：3000元婚纱照抵用券 ✅妆造：8服8造+内外景双拍+风格任选 ✅服务：底片全送+产品包邮到家 ✅产品：相框+相册+摆台+迎宾海报... ✅售后：全程管家式服务+不满意重拍 ------------------------------------- 🎀关注&amp;私信回复“1”获取最新报价 🎀关注&amp;私信回复“2”获取更多客片 ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#丽江婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#备婚﻿ ﻿#客片分享﻿ ﻿#婚纱照套餐</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA_5cd16ZW_aCBuSJ4wqU2yw</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -8943,12 +8943,12 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>幸福此刻具象化💓 #旅拍 #旅拍婚纱照 #婚纱照 #丽江旅拍 #云南旅拍</t>
+          <t>婚纱照套餐推荐 一价全包➕内外景双拍 服务套餐： ✅价格：一价全包，无任何隐形消费 ✅妆造：8服8造+内外景双拍+风格任选 ✅底片：底片全送+产品包邮到家 ✅产品：相框+相册+摆台+迎宾海报... ✅售后：全程管家式服务+不满意重拍</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA_5cd16ZW_aCBuSJ4wqU2yw</t>
         </is>
       </c>
       <c r="C568" t="n">
@@ -8958,12 +8958,12 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>欢迎收看三亚摄影师的工作日常vlog #婚纱照花絮 #拍摄花絮 #铂爵旅拍婚纱照</t>
+          <t>鼓浪屿教堂婚纱照喜欢仪式感别错过 #鼓浪屿教堂 #旅拍 #旅拍婚纱照 #厦门旅拍 #厦门婚纱照</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C569" t="n">
@@ -8973,12 +8973,12 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>花神降临🌷跑进明媚又鲜活的春天 #婚纱照花絮 #氛围感 #客片分享 #铂爵旅拍婚纱照</t>
+          <t>终于去拍婚纱照啦 手机拍摄的花絮都好爱~ #婚纱照花絮 #目的地婚礼 #婚纱照 #厦门旅拍 #厦门婚纱照</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C570" t="n">
@@ -8988,12 +8988,12 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>闯进春日里🍃春天就是甜妹主战场呀 #拍摄花絮 #拍照📸 #铂爵旅拍婚纱照</t>
+          <t>厦门鼓浪屿拍的婚纱照🎀说是天花板不过分吧</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C571" t="n">
@@ -9003,12 +9003,12 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>不动声色的东方美学❤️美出圈的新中式婚纱照 #新中式婚纱照 #婚纱照花絮 #铂爵旅拍婚纱照</t>
+          <t>婚纱照拍摄花絮曝光❗️现在拍婚纱照连花絮都这么卷了吗？ #内景婚纱照 #主婚纱婚纱照 #旅拍 #婚纱照 #婚纱照风格</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C572" t="n">
@@ -9018,12 +9018,12 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>这一刻目的地婚礼的意义爆棚！ #我的世界视觉盛宴 #目的地婚礼</t>
+          <t>热门仙女定制款💞梦幻海边婚纱照粉色系列 #大理旅拍 #旅拍 #婚纱照 #云南旅拍 #婚纱照风格</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C573" t="n">
@@ -9033,12 +9033,12 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>此刻中式婚纱照的含金量还在上升 #婚纱照推荐 #每个女孩的婚纱梦</t>
+          <t>一天的新娘👰‍♀️体验卡💐妆前vs妆后反差... #婚纱照 #妆容分享 #妆造 #我的婚纱照 #客片分享</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -9048,12 +9048,12 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>我就说吧~我穿婚纱的样子一定超美的 #客片分享 #每个女孩的婚纱梦</t>
+          <t>绝美法式婚纱照💐简直就是我的氛围感天菜</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C575" t="n">
@@ -9063,12 +9063,12 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>太美了！迫不及待分享出来 #外景拍摄花絮 #客片分享 #每个女孩的婚纱梦</t>
+          <t>是被雪山见证的幸福呀🏔️</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C576" t="n">
@@ -9078,7 +9078,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>快门记下最甜的瞬间👸🏻 #真实客照 #婚纱照花絮 #客片分享 #铂爵旅拍婚纱照</t>
+          <t>讲真，鼓浪屿拍这个机位真的有够浪漫！！ #鼓浪屿 #厦门婚纱照 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -9093,12 +9093,12 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>普通化妆师一天上班都在做什么 #工作花絮 #素人改造</t>
+          <t>把婚纱照拍成电影🎬 #我在人间贩卖黄昏 #一起看海 #镜头是爱意的具象化 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C578" t="n">
@@ -9108,12 +9108,12 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>一辈子就结一次婚，当然得是凤冠霞帔啊 #外景拍摄花絮 #每个女孩的婚纱梦</t>
+          <t>替大家试过了！油画婚纱照确实美得离谱！</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C579" t="n">
@@ -9123,12 +9123,12 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>分享上个月厦门店拍摄的花絮，每一对都可以拍出生图直出的效 #婚纱照花絮 #我们拍婚纱了</t>
+          <t>巨好看！傣族公主般婚纱照谁能不爱 #傣族服饰 #铂爵旅拍 #婚纱照花絮</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -9138,12 +9138,12 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>好city的街拍婚纱照！快乐无限～ #城市街拍 #婚纱照 #旅拍 #铂爵旅拍婚纱照</t>
+          <t>一名合格的摄影师需要具备什么精神？#拍摄花絮 #摄影日常 #铂爵旅拍</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
         </is>
       </c>
       <c r="C581" t="n">
@@ -9153,12 +9153,12 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>欢迎收看女明星的婚纱照vlog #婚纱照 #客片分享 #铂爵旅拍婚纱照</t>
+          <t>新郎都是拍照工具人实锤了 #婚纱照花絮 #拍摄花絮 #婚纱照</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
         </is>
       </c>
       <c r="C582" t="n">
@@ -9168,12 +9168,12 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>特种兵新娘快乐结婚的一天🎈厦门旅拍婚纱照 #厦门旅拍 #厦门婚纱照 #旅拍 #旅拍婚纱照 #拍摄花絮</t>
+          <t>出片是我们每个摄影师的使命！#客片分享 #摄影花絮 #外景拍摄花絮</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
         </is>
       </c>
       <c r="C583" t="n">
@@ -9183,12 +9183,12 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>《客照作品》厦门鼓浪屿！教堂仪式感婚纱照 #婚纱照花絮 #每个女孩的婚纱梦 #客片分享 #拍摄花絮</t>
+          <t>拍摄现场直击！#拍摄花絮 #婚纱照 #厦门婚纱照</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
         </is>
       </c>
       <c r="C584" t="n">
@@ -9198,12 +9198,12 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>化这个妆去见crush可以吗 #妆造分享 #我的婚纱照 #婚纱照分享 #客片分享 #旅拍</t>
+          <t>每一帧都是「人间值得」#拍摄花絮 #婚纱照 #旅拍婚纱照</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
         </is>
       </c>
       <c r="C585" t="n">
@@ -9213,7 +9213,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>听说你们想看原相机妆前妆后对比照 #婚纱照 #妆造 #妆前妆后 #旅拍 #旅拍婚纱照</t>
+          <t>粉色森系在逃公主婚纱照~甜妹必拍 #我的婚纱照 #婚纱照 #旅拍 #旅拍婚纱照 #备婚</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -9228,7 +9228,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>微胖女孩勇闯铂爵旅拍~看看翻车了吗 #外景拍摄花絮 #婚纱照推荐 #客片分享 #婚紗照 #我们拍婚纱了</t>
+          <t>嘴真严啊‼️没人告诉我红色旗袍这么出片啊 #旗袍婚纱照 #旅拍 #旅拍婚纱照 #婚纱照 #新中式</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -9243,7 +9243,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>婚纱照客片真的可以比样片好看 #婚纱照 #旅拍 #旅拍婚纱照 #厦门婚纱照 #备婚</t>
+          <t>带你沉浸式体验旅拍摄影师的一天.... #婚纱照花絮 #旅拍 #旅拍婚纱照 #我的婚纱照 #婚纱照</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -9258,12 +9258,12 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>🌸还得是法式婚纱照～每一帧都美到心坎里～ #外景拍摄花絮 #草坪拍照 #客片分享 #铂爵旅拍婚纱照</t>
+          <t>是小时候成为梦想成为的漂亮新娘 旅拍婚纱照 #每个女孩的婚纱梦 #婚纱照花絮 #客片分享 #婚纱照 #旅拍婚纱照</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C589" t="n">
@@ -9273,12 +9273,12 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>客人婚纱照花絮美爆了❗️电影氛围感拿捏</t>
+          <t>A爆了！这狗粮我先吃为敬 #婚纱照花絮 #拍出电影感 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C590" t="n">
@@ -9288,12 +9288,12 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>给无声女孩拍婚纱照的一天</t>
+          <t>你的出现胜过明媚的春#婚纱照 #婚前微电影 #趁着春暖花开拍婚纱照吧 #李梦然 #澄芓</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>woxjrqDwAAlQKSc-ocrL93dDrOzc50Fw</t>
+          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
         </is>
       </c>
       <c r="C591" t="n">
@@ -9303,12 +9303,12 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>定格你们的幸福瞬间 谱写着世界上最浪漫的语言 #拍摄花絮 #拍婚纱婚纱花絮 #婚纱照 #客片分享 #我们拍婚纱了</t>
+          <t>拜托！这样的街拍婚纱照真的很酷 #街拍婚纱照 #拍摄花絮</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
         </is>
       </c>
       <c r="C592" t="n">
@@ -9318,12 +9318,12 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>“ 与你在一起 晨昏与四季 ” #客片分享 #婚纱照花絮 #我的婚纱照 #备婚 #婚纱照</t>
+          <t>今日糖分已加载200% #婚纱照花絮 #我们拍婚纱了 #拍摄花絮 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C593" t="n">
@@ -9333,12 +9333,12 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>你永远是我的𝑷𝒍𝒂𝒏𝑨和𝑻𝒐𝒑1 #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了 #拍摄花絮 #客片分享</t>
+          <t>甜蜜来袭‼️元气满满的小清新春日婚纱照✨ #婚纱照 #婚纱照花絮#铂爵旅拍婚纱照 #李羲承进行曲</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C594" t="n">
@@ -9348,12 +9348,12 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>当森系婚纱照遇上法式风格🍃 #婚纱照 #客片分享 #外景拍摄花絮 #我们拍婚纱了 #旅拍</t>
+          <t>我若拿出此等美景，阁下该如何应对 #每个女孩的婚纱梦 #旅拍 #旅拍婚纱照 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C595" t="n">
@@ -9363,12 +9363,12 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>春天就是甜妹主战场呀🌿 #婚纱照花絮 #森系婚纱照 #我们拍婚纱了 #每个女孩的婚纱梦 #客片分享</t>
+          <t>笑着嫁给18岁喜欢的男孩啦 #婚纱照 #客片分享 #婚紗照</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C596" t="n">
@@ -9378,12 +9378,12 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>理想中的中式复古园林旗袍婚纱照✨太有诗意 #旗袍婚纱照 #国风 #旅拍 #旅拍婚纱照 #备婚</t>
+          <t>海是自由的，我们也是 #婚纱照花絮 #大理婚纱照 #洱海婚纱照 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C597" t="n">
@@ -9393,12 +9393,12 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>甜甜的一辈子拿去吧你们~ #婚纱照 #旅拍 #旅拍婚纱照 #大理婚纱照 #云南旅拍</t>
+          <t>婚纱照预告片抢先看 #每个女孩的婚纱梦 #我们拍婚纱了 #婚纱照花絮</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C598" t="n">
@@ -9408,12 +9408,12 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>巴厘岛的浪漫在升温🔥 #一起看海 #巴厘岛旅拍 #旅拍婚纱照 #备婚 #我的婚纱照</t>
+          <t>原来幸福真的会让人长出酒窝 #拍婚纱婚纱花絮 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C599" t="n">
@@ -9423,12 +9423,12 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>巴厘岛婚礼｜穿越海风的婚礼现场巨浪漫 #婚纱照花絮 #我们拍婚纱了 #客片分享 #目的地婚礼</t>
+          <t>都是摄影师越黑技术含量越高 #旅拍婚纱照 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C600" t="n">
@@ -9438,12 +9438,12 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>巴厘岛的每一处都是天然的摄影棚 #巴厘岛旅拍 #旅拍 #旅拍婚纱照 #海外旅拍 #巴厘岛婚纱照</t>
+          <t>镜头装不下的汹涌爱意 #跟拍摄影 #每个女孩的婚纱梦 #婚纱照</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C601" t="n">
@@ -9453,12 +9453,12 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>后劲太大❗️永远为大理旅拍婚纱照心动💞 #旅拍 #旅拍婚纱照 #婚纱照 #大理婚纱照 #云南旅拍</t>
+          <t>笑着嫁给陪我奇奇怪怪的人啦 #婚纱照花絮 #我们拍婚纱了 #摄影约拍</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C602" t="n">
@@ -9468,12 +9468,12 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>帅从来都是一种感觉 #氛围感 #一起看海</t>
+          <t>婚纱照花絮｜幸福是可以被感染的🧚‍♀️ #婚纱照 #旅拍 #旅拍婚纱照 #婚纱照花絮 #婚纱照风格</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C603" t="n">
@@ -9483,12 +9483,12 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>她的出现让我觉得生活是一种动词 #婚纱照花絮 #每个女孩的婚纱梦</t>
+          <t>“定格你们的幸福瞬间 谱写着世界上最浪漫的语言” #大理洱海 #大理旅拍 #旅拍婚纱照 #婚纱照 #备婚</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C604" t="n">
@@ -9498,12 +9498,12 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>第7集 | 婚纱不是终点，是共度余生的起点 #每个女孩的婚纱梦 #婚纱照 #美出高级感</t>
+          <t>将私有浪漫公之于众 #每个女孩的婚纱梦 #婚纱照花絮 #备婚日常 #拍摄花絮 #婚纱摄影</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C605" t="n">
@@ -9513,12 +9513,12 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>婚纱不是束缚，是确定彼此的宣言 #拍摄花絮 #工作花絮</t>
+          <t>救命~这么甜是要迷死谁呀 #拍摄花絮 #客片分享 #婚纱照花絮 #婚纱照 #旅拍婚纱照</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C606" t="n">
@@ -9528,12 +9528,12 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>第8集 | 在镜头前，我们成了自己的爱情电影主角 #婚纱照花絮 #每个女孩的婚纱梦</t>
+          <t>找到共写人生剧本的搭档 #客片分享 #婚纱照</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
         </is>
       </c>
       <c r="C607" t="n">
@@ -9543,12 +9543,12 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>第9集 | 浪漫无需台词，婚纱自成篇章 #婚纱照推荐 #每个女孩的婚纱梦</t>
+          <t>剧透婚纱照的万分之一甜 #拍摄花絮 #婚纱照</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
         </is>
       </c>
       <c r="C608" t="n">
@@ -9558,12 +9558,12 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>婚纱是道具，互动才是主角 #婚纱照花絮 #我们拍婚纱了 #真实客照</t>
+          <t>双人剧本从婚纱照开机 #拍摄花絮 #婚纱照</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAA5jkpncRfRZOgBY2VxHyPuw</t>
         </is>
       </c>
       <c r="C609" t="n">
@@ -9573,12 +9573,12 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>第10集 | 不是嫁给岁月，是嫁给你 #森系婚纱照 #客片分享 #每个女孩的婚纱梦</t>
+          <t>原来幸福真的会从照片里溢出来！ #婚纱照花絮 #我们拍婚纱了 #备婚日常 #旅拍 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C610" t="n">
@@ -9588,12 +9588,12 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>黑纱与玫瑰，叛逆与温柔的化学反应 #婚纱照推荐 #客片分享</t>
+          <t>狠狠心动了💕轻法式就是氛围感的神！ #拍摄花絮 #每个女孩的婚纱梦 #法式婚纱照 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C611" t="n">
@@ -9603,12 +9603,12 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>与山川湖海为证，婚纱是自然的第三位见证人 #婚纱照推荐 #每个女孩的婚纱梦</t>
+          <t>“爱在黄昏日落时”🌇 #旅拍婚纱照 #一起看海 #备婚日常 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C612" t="n">
@@ -9618,12 +9618,12 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>不定义风格，只定义我们的爱 #氛围感 #婚纱照 #美出高级感 #氛围感情侣照片</t>
+          <t>“爱情哪有那么复杂 能让你笑的 就是对的人” #婚纱照花絮 #我们拍婚纱了 #拍摄花絮 #客片分享 #旅拍</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C613" t="n">
@@ -9633,12 +9633,12 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>夕阳把婚纱染成琥珀色，心跳也慢了半拍 #婚纱照 #外景拍摄花絮</t>
+          <t>谁懂原相机直出的婚纱照花絮啊~ #旅拍 #婚纱照 #我的婚纱照 #婚纱照风格 #目的地婚礼</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C614" t="n">
@@ -9648,12 +9648,12 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>是谁说婚纱必须端庄！！ #婚纱照 #晒一晒我的婚纱照</t>
+          <t>“承认吧 你也很为我着迷~” #旅拍 #旅拍婚纱照 #婚纱照 #拍摄花絮 #旅拍婚纱照</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C615" t="n">
@@ -9663,12 +9663,12 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>爱情不需要证明，但婚纱是漂亮的证据 #客片分享 #法式婚纱照 #真实客照</t>
+          <t>婚纱照拍摄花絮 我愿称之为“幸福” #巴厘岛旅拍 #旅拍婚纱照 #婚纱照 #婚纱照风格 #婚纱照花絮</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C616" t="n">
@@ -9678,12 +9678,12 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>拍婚纱照的正确打开方式：新娘扶腰，新郎扶钱包 #每个女孩的婚纱梦 #婚纱照</t>
+          <t>妆前妆后的反差，见证幸福的开始 #妆前妆后 #真实客照#旅拍 #拍摄花絮 #婚纱照</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C617" t="n">
@@ -9693,7 +9693,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>婚纱照拍完，我悟了：爱情是美好的，但腰带是痛苦的 #客片分享 #婚纱照</t>
+          <t>双人剧本从婚纱照正式开机 #婚纱照 #客片分享 #婚紗照</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -9708,7 +9708,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>“你站在光里，我站在爱里 #一起看海 #婚纱照</t>
+          <t>正片还在路上，花絮先到 #婚纱照花絮 #三亚婚纱照</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -9723,7 +9723,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>微胖女孩也可以拍出好看的婚纱照 #婚纱照花絮 #我们拍婚纱了</t>
+          <t>今天簪花 今天漂亮 #簪花 #簪花婚纱照</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -9738,7 +9738,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>普通人只需要花7k就可以办目的地婚礼 #婚纱照 #目的地婚礼</t>
+          <t>分享我的备婚日常 #婚纱照花絮 #镜头是爱意的具象化</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -9753,12 +9753,12 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>海岸边夏天永不停歇 我对你的爱意永远热烈 #一起看海 #婚纱照花絮</t>
+          <t>这次不当甜妹💥当芳心纵火犯❗️ #婚纱照 #我们拍婚纱了 #旅拍 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C622" t="n">
@@ -9768,12 +9768,12 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>微胖女生找到适合自己的婚纱照风格，颜值直接弯道超车 #婚纱照 #我们拍婚纱了</t>
+          <t>终于! ! 轮到我拍电影感婚纱照 🤍 #旅拍婚纱照 #每个女孩的婚纱梦 #旅拍 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C623" t="n">
@@ -9783,12 +9783,12 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>客户说“这是我理想型的小众婚纱照” #街拍婚纱照 #拍出电影感</t>
+          <t>肆意绽放的野玫瑰，是我爱你的情感外放❗️ #婚纱照花絮 #拍出电影感 #每个女孩的婚纱梦 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C624" t="n">
@@ -9798,12 +9798,12 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>十年后翻看，依然心跳加速的婚纱照 #每个女孩的婚纱梦 #客片分享 #美出高级感</t>
+          <t>婚纱照花絮比正片还甜是怎么回事！ #每个女孩的婚纱梦 #婚纱照 #美出高级感 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C625" t="n">
@@ -9813,7 +9813,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>这个转场终于轮到我拍啦 #婚纱照花絮 #拍摄花絮 #我们拍婚纱了</t>
+          <t>看日出真的是一件浪漫又美好的事 #日出 #大理</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -9828,7 +9828,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>来杭州旅游，怎么能不拍一组旗袍呢</t>
+          <t>普通摄影师拍婚纱照都在做这些事 #婚纱照花絮 #拍摄花絮 #我们拍婚纱了</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -9843,7 +9843,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>哪个女孩能拒绝这种凤冠霞帔的婚纱照啊 #新国风中式婚纱推荐 #客片分享</t>
+          <t>浪漫的爱情总需要留一组特别的照片做纪念 #客片分享 #婚纱照花絮 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -9858,7 +9858,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>可她穿上婚纱的样子真的超美的耶 #每个女孩的婚纱梦 #婚纱照花絮</t>
+          <t>喜欢花 喜欢海 喜欢日落 喜欢你. #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -9873,7 +9873,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>分享普通女生拍婚纱照一天都在做什么 #婚纱照花絮 #拍摄花絮</t>
+          <t>在大理的时间像云一样漂浮 #旅拍婚纱照 #旅拍 #大理</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -9888,7 +9888,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>嫁给爱情的样子，每一帧都是幸福感 #婚纱照 #我们拍婚纱了</t>
+          <t>别人拍婚纱照是摆拍，我们是大型撒狗粮真人秀 #巴厘岛 #婚纱照</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -9903,7 +9903,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>姿势僵？有摄影师引导秒变镜头女王 #工作花絮 #拍摄花絮</t>
+          <t>带着婚纱去旅行，在每个风景里说’我愿意 #婚纱照花絮 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -9918,7 +9918,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>十年后翻看，依然心跳加速的婚纱照 #婚纱照花絮 #每个女孩的婚纱梦</t>
+          <t>2个小时直接一个无痛微整 #婚纱照花絮 #素人改造 #变美</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -9933,12 +9933,12 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>人生不就活几个瞬间 #巴厘岛 #婚纱照花絮</t>
+          <t>欢迎收看90后婚纱化妆师在三亚的一天 #vlog #婚纱照 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C634" t="n">
@@ -9948,12 +9948,12 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>穿越人山人海去看山河大海 #婚纱照花絮 #海岛度假</t>
+          <t>救命！婚纱照拍出了热恋即视感 #婚纱照花絮 #每个女孩的婚纱梦 #旅拍 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C635" t="n">
@@ -9963,12 +9963,12 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>在巴厘岛拍到了人生绝美壁纸 #客片分享 #婚纱照</t>
+          <t>新中式园林 | 婚纱照里的东方浪漫 #婚纱照风格 #客片分享 #总要拍一套旗袍中国风吧 #花絮拍摄</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C636" t="n">
@@ -9978,12 +9978,12 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>邂逅南纬8°的浪漫</t>
+          <t>还原美貌🆚普通女孩的婚纱照妆前妆后对比 #妆前妆后 #婚纱照 #旅拍婚纱照 #我的婚纱照</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -9993,12 +9993,12 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>过自己喜欢的生活，拍自己想拍的婚纱照 #婚纱照 #巴厘岛</t>
+          <t>在爱与被爱里 踏入新的旅程 #婚纱照花絮 #客片分享 #我们拍婚纱了 #婚紗照 #旅拍</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -10008,12 +10008,12 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>是化妆师稱亦是幸福見證者 #婚纱照花絮 #每个女孩的婚纱</t>
+          <t>浪漫到心坎儿里的夜景婚纱照✨ #旅拍 #旅拍婚纱照 #婚纱照风格 #夜景婚纱照 #备婚</t>
         </is>
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C639" t="n">
@@ -10023,12 +10023,12 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>在杭州拍到了理想中的婚纱照了 #婚纱照花絮 #婚纱摄影</t>
+          <t>厦门婚纱照鼓浪屿教堂真的很出片！ #旅拍 #旅拍婚纱照 #婚纱照 #婚纱照风格 #我的婚纱照</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -10038,12 +10038,12 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>因为幸福而有闪闪发光的生动 #和春天的花花合个影</t>
+          <t>奉劝那些想要去鼓浪屿拍婚纱照的姐妹们~ 真的很出片啊，给大家分享今天拍摄的花絮，尊嘟超美#婚纱照风格 #每个女孩的婚纱梦 #客片分享 #旅拍 #真实客照</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -10053,12 +10053,12 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>太爱我婚纱照的造型了！恨不得焊亖在脸上 #拍摄花絮 #能扛住原相机质感妆容</t>
+          <t>美女和她的天菜男友 厦门旅拍婚纱照 #旅拍 #旅拍婚纱照 #厦门婚纱照 #客片分享 #我的婚纱照</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C642" t="n">
@@ -10068,12 +10068,12 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>此刻 来年 都幸福 #我们拍婚纱了 #旅拍</t>
+          <t>😘甜炸了！这个爱笑的新娘子简直是幸福代言 #拍婚纱婚纱花絮 #拍摄花絮 #真实客照 #婚纱照 #客片分享</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -10083,12 +10083,12 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>欢迎收看一个普通摄影师日常工作的vlog #婚纱照花絮 #摄影约拍</t>
+          <t>谁懂《爱在日落黄昏时》的含金量！ #海边婚纱照 #婚纱照 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -10098,12 +10098,12 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>每张照片下的浪漫是爱意的具像化 #婚纱照花絮 #我们拍婚纱了</t>
+          <t>沉浸式体验厦门旅拍婚纱摄影师的一天 #婚纱照花絮 #摄影师日常 #拍摄花絮 #婚纱摄影 #婚紗照</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -10113,12 +10113,12 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>拥有一个超会引导的摄影师是一种什么体验 #春天与汉服有多适配 #春天穿汉服去赏花呀</t>
+          <t>办一场超绝目的地婚礼吧～鼓浪屿拍摄花絮 #婚纱照花絮 #客片分享 #每个女孩的婚纱梦 #旅拍 #我们拍婚纱了</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -10128,12 +10128,12 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>90后普通化妆师一天都在做什么 #婚纱照 #一起看海</t>
+          <t>爱在日落黄昏时 #婚纱照花絮 #客片分享 #婚紗照 #旅拍 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -10143,12 +10143,12 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>论找一个懂自己想要的化妆师的重要性！ #婚纱照花絮 #花絮</t>
+          <t>花絮比正片还甜的三亚婚纱照！😍嗑上头了 #三亚旅拍 #三亚婚纱照 #旅拍婚纱照 #客片分享 #我的婚纱照</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C648" t="n">
@@ -10158,12 +10158,12 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>幸福，在此刻变得巨象化～ #婚纱照花絮 #拍摄花絮 #工作花絮</t>
+          <t>是普通女生也能驾驭的海边婚纱照呀 👌 #三亚旅拍 #三亚婚纱照 #婚纱照 #婚纱照风格 #备婚</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C649" t="n">
@@ -10173,12 +10173,12 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>遇到同频的摄影师真的缘分 #工作花絮 #拍摄花絮</t>
+          <t>🏝𝙎𝙖𝙣𝙔𝙖 ·✌🏖️沙滩·🌊海边 三亚旅拍 #三亚旅拍 #旅拍 #旅拍婚纱照 #我的婚纱照 #备婚</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -10188,12 +10188,12 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>和心爱的人结婚，就像打了一场胜仗！ #拍婚纱婚纱花絮 #每个女孩的婚纱梦</t>
+          <t>被这组丽江旅拍婚纱照客片硬控了15s~ #云南旅拍 #云南旅拍婚纱照 #婚纱照 #婚纱照风格 #备婚</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -10203,12 +10203,12 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>情绪会被传染，浪漫也是婚纱照里的生命力 #婚纱照花絮 #我们拍婚纱了 #总要拍一次藏服写真吧</t>
+          <t>“苍山下，洱海边”🌊大理旅拍婚纱照 #婚纱照花絮 #客片分享 #每个女孩的婚纱梦 #拍摄花絮</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C652" t="n">
@@ -10218,12 +10218,12 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>婚纱照的意义，远不止是记录美丽的瞬间</t>
+          <t>大理的浪漫洱海占一半🌊 #旅拍 #旅拍婚纱照 #婚纱照 #备婚 #我的婚纱照</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C653" t="n">
@@ -10233,12 +10233,12 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>成片先等等！！花絮抢先看下！ #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了</t>
+          <t>苍山下⛰️ 洱海旁🌊大理旅拍婚纱照 #婚纱照 #婚纱照风格 #我的婚纱照 #云南旅拍 #云南旅拍婚纱照</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C654" t="n">
@@ -10248,12 +10248,12 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>圆脸女孩画这个妆完全和精灵一样！</t>
+          <t>大理旅拍 听了风的话 去了想去的地方~ #旅拍 #旅拍婚纱照 #婚纱照 #备婚 #云南旅拍</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -10263,12 +10263,12 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>拍了3套婚纱照，大家觉得哪套最适合我 #婚纱照花絮 #客片分享</t>
+          <t>欢迎收看00后勇闯大理旅拍婚纱照volg #旅拍 #旅拍婚纱照 #婚纱照 #婚纱照风格 #我的婚纱照</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -10278,12 +10278,12 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>沉浸式带大家看下厦门鼓浪屿门店基地 #同城好店推荐 #工作花絮</t>
+          <t>啊啊春天就是甜妹主战场呀🌿 #婚纱照 #旅拍婚纱照 #客片分享 #森系婚纱照 #铂爵旅拍</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -10293,12 +10293,12 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>大家都说好幸福好有气质 #婚纱照花絮 #拍摄花絮</t>
+          <t>笑着把青春存档在婚纱照里啦💾 #婚纱照花絮 #拍摄花絮 #客片分享 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -10308,12 +10308,12 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>比美照更有杀伤力的是生命力 #婚纱照花絮 #客片分享</t>
+          <t>👰🏻‍♀️mini vlog💕我们去拍婚纱照啦 #婚纱照花絮 #客片分享 #拍摄花絮 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C659" t="n">
@@ -10323,12 +10323,12 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>大家觉得我完成客户想要的么 #婚纱照花絮 #一起看海 #情侣拍照姿势</t>
+          <t>同一套婚纱照竟然可以拍出两种风格！ #婚纱照花絮 #客片分享 #每个女孩的婚纱梦 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C660" t="n">
@@ -10338,12 +10338,12 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>拍照重要的当然是摄影师的引导啦 #婚纱照花絮 #拍摄花絮 #街拍</t>
+          <t>这套婚纱照能召唤全糖去冰的快乐 #婚纱照花絮 #我们拍婚纱了 #客片分享 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -10353,7 +10353,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>拍婚纱照一天都在做什么呢 #拍摄花絮 #工作花絮</t>
+          <t>逆光拍摄秘诀：眼睛眯成缝也要假装深情 #婚纱照花絮 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -10368,7 +10368,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>这次 我站在幸福里 #每个女孩的婚纱梦</t>
+          <t>baby我们的感情肯定看得清 #旅拍婚纱照 #满眼都是你的人才配的上你的爱</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -10383,12 +10383,12 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>用婚纱照把幸福存档备份📸 #晒一晒我的婚纱照 #婚纱照 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+          <t>和爱人一起去看海吧 #婚纱照花絮 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C664" t="n">
@@ -10398,12 +10398,12 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>新风格来啦！甜酷天花板也不过如此~ #外景拍摄花絮 #客片分享 #铂爵旅拍婚纱照</t>
+          <t>阳光是最好的滤镜 #一起看海 #海边拍照 #客片分享</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C665" t="n">
@@ -10413,12 +10413,12 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>原来幸福真的会让人变回小孩 #婚纱照花絮 #我们拍婚纱了 #拍出电影感 #铂爵旅拍婚纱照</t>
+          <t>雨天必拍的宿命感婚纱照 #婚纱照花絮 #客片分享 #婚紗照</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C666" t="n">
@@ -10428,12 +10428,12 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>在丽江拍到了我的人生婚纱照！ #婚纱照花絮 #总要拍一次藏服写真吧 #铂爵旅拍婚纱照</t>
+          <t>春日花仙子妆🧚🏻‍♀️又到了鲜花浪漫的季节 #森系婚纱照 #妆造 #旅拍 #旅拍婚纱照 #备婚</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C667" t="n">
@@ -10443,12 +10443,12 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>婚纱照的意义，远不止是记录美丽的瞬间 #婚纱照花絮 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+          <t>bgm一响是谁又心动了💗森系婚纱照 #旅拍 #旅拍婚纱照 #备婚 #婚纱照 #森系</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -10458,12 +10458,12 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>婚纱照是给未来的情书 #婚纱照花絮 #拍摄花絮 #每个女孩的婚纱梦 #铂爵旅拍婚纱照</t>
+          <t>姐妹们 真的没有进剧组拍戏~这是我在厦门拍的婚纱照 #优雅永不过时#中式婚纱照 #凤冠霞帔 #婚纱照 #旅拍</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -10473,12 +10473,12 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>镜头里的浪漫，是我们相爱的证据 #婚纱照花絮 #我们拍婚纱了 #摄影约拍 #铂爵旅拍婚纱照</t>
+          <t>今日份的浪漫 婚纱照花絮 #旅拍婚纱照 #婚纱照 #备婚 #旅拍 #厦门婚纱照</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C670" t="n">
@@ -10488,12 +10488,12 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>婚纱照是给未来的情书呀 #婚纱照花絮 #每个女孩的婚纱梦 #拍摄花絮 #铂爵旅拍婚纱照</t>
+          <t>我们自由而热烈～我们的婚纱照也是 #丽江旅拍 #客片分享 #丽江婚纱照 #旅拍 #旅拍婚纱照</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C671" t="n">
@@ -10503,12 +10503,12 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>花仙子的婚纱照花絮✨森系氛围太美啦💐 #婚纱照花絮 #每个女孩的婚纱梦 #铂爵旅拍婚纱照</t>
+          <t>厦门鼓浪屿婚纱照 掌管氛围感的神~ #旅拍 #旅拍婚纱照 #婚纱照 #我的婚纱照 #备婚</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -10518,7 +10518,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>花絮已经美的不像话✨这样穿婚纱也太甜美叭 #外景拍摄花絮 #每个女孩的婚纱梦 #婚纱照 #铂爵旅拍婚纱照</t>
+          <t>爱让每个表情都发光 #婚纱照花絮 #春季氛围感照片 #客片分享 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
@@ -10533,7 +10533,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>绝美复古婚纱照🪄我愿称之为氛围感之神❗ #拍摄花絮 #婚纱照花絮 #油画风 #铂爵旅拍婚纱照</t>
+          <t>绝美复古婚纱照🪄我愿称之为氛围感之神❗ #婚纱照花絮 #拍摄花絮 #客片分享 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
@@ -10548,7 +10548,7 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>你眼中有星河，我眼中有你 #婚纱照花絮 #每个女孩的婚纱梦 #铂爵旅拍婚纱照</t>
+          <t>欢迎收看厦门婚纱照摄影师的一日vlog #婚纱照花絮 #客片分享 #镜头是爱意的具象化 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
@@ -10563,7 +10563,7 @@
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>欢迎收看我的巴厘岛旅拍vlog~~ #巴厘岛 #婚纱照花絮 #铂爵旅拍婚纱照</t>
+          <t>这套婚纱照能申请吉尼斯甜蜜纪录 #婚纱照花絮 #客片分享 #拍摄花絮 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
@@ -10578,12 +10578,12 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>巴厘岛旅拍 精神和身体的双重治愈🏝️</t>
+          <t>救命！这套婚纱照能治愈所有不开心 #婚纱照花絮 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -10593,7 +10593,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>去巴厘岛玩啦！顺便结了个婚～目的地婚礼</t>
+          <t>浪漫满屋💐花房里的少女！ #妆造 #客片分享 #拍摄花絮 #婚纱照 #备婚</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
@@ -10608,7 +10608,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>巴厘岛拍摄花絮分享</t>
+          <t>总要去趟三亚吧，吹吹西岛的晚风，看看椰梦长廊的晚霞.... 去到天涯海角，品尝正宗的椰子鸡，在分界洲岛感受海南的夏天#三亚旅拍 #旅拍婚纱照 #三亚婚纱照 #客片分享 #备婚</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
@@ -10623,7 +10623,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>浪漫加倍💕我的婚纱照被拍成了目的地婚礼💍 #目的地婚礼 #深圳婚纱照 #我的婚纱照 #旅拍 #旅拍婚纱照</t>
+          <t>🎬婚纱照Vlog 💗体验女明星的一天 #婚纱照花絮 #我们拍婚纱了 #客片分享 #旅拍 #婚紗照</t>
         </is>
       </c>
       <c r="B680" t="inlineStr">
@@ -10638,7 +10638,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>欢迎收看婚纱摄影人的工作日常 #摄影师 #旅拍 #旅拍婚纱照 #备婚 #拍摄花絮</t>
+          <t>幸福此刻具象化💓 #旅拍 #旅拍婚纱照 #婚纱照 #丽江旅拍 #云南旅拍</t>
         </is>
       </c>
       <c r="B681" t="inlineStr">
@@ -10653,12 +10653,12 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>三亚旅拍婚纱照花絮来啦！！ #三亚旅拍 #三亚婚纱照 #旅拍婚纱照 #客片分享 #拍摄花絮</t>
+          <t>欢迎收看三亚摄影师的工作日常vlog #婚纱照花絮 #拍摄花絮 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C682" t="n">
@@ -10668,12 +10668,12 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>摄影师最紧张的时刻.... #旅拍 #旅拍婚纱照 #丽江旅拍 #丽江婚纱照 #备婚</t>
+          <t>花神降临🌷跑进明媚又鲜活的春天 #婚纱照花絮 #氛围感 #客片分享 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C683" t="n">
@@ -10683,12 +10683,12 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>素颜一般，但是化妆后也太… #化妆造型分享 #妆面记录 #拍摄花絮 #客片分享 #婚纱照花絮</t>
+          <t>闯进春日里🍃春天就是甜妹主战场呀 #拍摄花絮 #拍照📸 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C684" t="n">
@@ -10698,7 +10698,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>镜头里的浪漫，是我们相爱的证据 #婚纱照花絮 #海边拍照 #旅拍 #铂爵旅拍婚纱照</t>
+          <t>不动声色的东方美学❤️美出圈的新中式婚纱照 #新中式婚纱照 #婚纱照花絮 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B685" t="inlineStr">
@@ -10713,12 +10713,12 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>婚纱照里的我们闪闪发光 #每个女孩的婚纱梦 #婚纱照 #外景拍摄花絮 #铂爵旅拍婚纱照</t>
+          <t>这一刻目的地婚礼的意义爆棚！ #我的世界视觉盛宴 #目的地婚礼</t>
         </is>
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -10728,12 +10728,12 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>婚纱照之：天气预报请查收！ #婚纱照花絮 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+          <t>此刻中式婚纱照的含金量还在上升 #婚纱照推荐 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C687" t="n">
@@ -10743,12 +10743,12 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>向海风许愿，在山海相见 #婚纱照花絮 #拍摄花絮 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+          <t>我就说吧~我穿婚纱的样子一定超美的 #客片分享 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C688" t="n">
@@ -10758,27 +10758,27 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>欢迎收看拍摄现场：专业团队在线吃瓜 #婚纱照花絮 #我们拍婚纱了 #旅拍 #铂爵旅拍婚纱照</t>
+          <t>太美了！迫不及待分享出来 #外景拍摄花絮 #客片分享 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C689" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>三亚婚纱照花絮好喜欢！比正片还甜！磕上头了</t>
+          <t>快门记下最甜的瞬间👸🏻 #真实客照 #婚纱照花絮 #客片分享 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
         </is>
       </c>
       <c r="C690" t="n">
@@ -10788,12 +10788,12 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>巴厘岛泳池婚纱照！没人告诉过我这么好看啊</t>
+          <t>普通化妆师一天上班都在做什么 #工作花絮 #素人改造</t>
         </is>
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C691" t="n">
@@ -10803,12 +10803,12 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>深圳婚纱照安全下车啦！成片更惊艳！</t>
+          <t>一辈子就结一次婚，当然得是凤冠霞帔啊 #外景拍摄花絮 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C692" t="n">
@@ -10818,12 +10818,12 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>客户拍婚纱照一日vlpg花絮｜深圳婚纱照</t>
+          <t>分享上个月厦门店拍摄的花絮，每一对都可以拍出生图直出的效 #婚纱照花絮 #我们拍婚纱了</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C693" t="n">
@@ -10833,7 +10833,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>有谁懂这个法式的含金量！！ ﻿#铂爵旅拍婚纱照﻿ ﻿#法式婚纱照﻿ ﻿#厦门旅拍﻿ ﻿#室内婚纱照﻿ ﻿#婚纱照</t>
+          <t>好city的街拍婚纱照！快乐无限～ #城市街拍 #婚纱照 #旅拍 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -10848,7 +10848,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>和喜欢的人拍照真的会发光✨ ﻿#婚纱照﻿ ﻿#备婚﻿ ﻿#厦门婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#丽江婚纱照﻿ ﻿#大理婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+          <t>欢迎收看女明星的婚纱照vlog #婚纱照 #客片分享 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
@@ -10863,12 +10863,12 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>春天就要这么拍！谁能拒绝鲜花婚纱照🌸 ﻿#婚纱照﻿ ﻿#户外婚纱照﻿ ﻿#春日婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+          <t>特种兵新娘快乐结婚的一天🎈厦门旅拍婚纱照 #厦门旅拍 #厦门婚纱照 #旅拍 #旅拍婚纱照 #拍摄花絮</t>
         </is>
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C696" t="n">
@@ -10878,12 +10878,12 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>如果幸福是酵母，那我就是一块蓬松的小面包 ﻿#厦门婚纱照﻿ ﻿#备婚﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+          <t>《客照作品》厦门鼓浪屿！教堂仪式感婚纱照 #婚纱照花絮 #每个女孩的婚纱梦 #客片分享 #拍摄花絮</t>
         </is>
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C697" t="n">
@@ -10893,12 +10893,12 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>用婚纱照把幸福存档备份📸 ﻿#铂爵旅拍婚纱照﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#厦门婚纱照</t>
+          <t>化这个妆去见crush可以吗 #妆造分享 #我的婚纱照 #婚纱照分享 #客片分享 #旅拍</t>
         </is>
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C698" t="n">
@@ -10908,12 +10908,12 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>欢迎收看90后婚纱照化妆师的一天 ﻿#化妆师vlog﻿ ﻿#铂爵旅拍婚纱照﻿ ﻿#婚纱照﻿ ﻿#婚纱照vlog﻿ ﻿#婚纱照</t>
+          <t>听说你们想看原相机妆前妆后对比照 #婚纱照 #妆造 #妆前妆后 #旅拍 #旅拍婚纱照</t>
         </is>
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C699" t="n">
@@ -10923,12 +10923,12 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>把「开心」写在婚纱照的每个像素里 ﻿#铂爵旅拍婚纱照﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#小众婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#丽江婚纱照﻿ ﻿#大理婚纱照</t>
+          <t>微胖女孩勇闯铂爵旅拍~看看翻车了吗 #外景拍摄花絮 #婚纱照推荐 #客片分享 #婚紗照 #我们拍婚纱了</t>
         </is>
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C700" t="n">
@@ -10938,12 +10938,12 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>被新中式硬控30s，真的太美了！ ﻿#新中式婚纱照﻿ ﻿#中式婚纱照﻿ ﻿#厦门婚纱照</t>
+          <t>婚纱照客片真的可以比样片好看 #婚纱照 #旅拍 #旅拍婚纱照 #厦门婚纱照 #备婚</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C701" t="n">
@@ -10953,7 +10953,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>春日必拍！花环公主的婚纱照花絮✨ ﻿#春日婚纱照﻿ ﻿#氧气感﻿ ﻿#婚纱照花絮﻿ ﻿#厦门婚纱照</t>
+          <t>🌸还得是法式婚纱照～每一帧都美到心坎里～ #外景拍摄花絮 #草坪拍照 #客片分享 #铂爵旅拍婚纱照</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
@@ -10968,12 +10968,12 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>city walk！就是要拍这么酷的婚纱照 ﻿#街拍婚纱照﻿ ﻿#甜酷婚纱照﻿ ﻿#婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+          <t>客人婚纱照花絮美爆了❗️电影氛围感拿捏</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
         </is>
       </c>
       <c r="C703" t="n">
@@ -10983,12 +10983,12 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>此刻，爱意具象化✨ ﻿#婚纱照﻿ ﻿#旅拍﻿ ﻿#婚纱照风格﻿ ﻿#丽江婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+          <t>给无声女孩拍婚纱照的一天</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAlQKSc-ocrL93dDrOzc50Fw</t>
         </is>
       </c>
       <c r="C704" t="n">
@@ -10998,12 +10998,12 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>谁懂呀❗微胖新娘也能拍出高级感✨ #婚纱照花絮 #我们拍婚纱了 #婚期倒计时 #铂爵旅拍婚纱照</t>
+          <t>定格你们的幸福瞬间 谱写着世界上最浪漫的语言 #拍摄花絮 #拍婚纱婚纱花絮 #婚纱照 #客片分享 #我们拍婚纱了</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C705" t="n">
@@ -11013,12 +11013,12 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>和不扫兴的对象拍婚纱照转场~ #婚纱照花絮 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+          <t>“ 与你在一起 晨昏与四季 ” #客片分享 #婚纱照花絮 #我的婚纱照 #备婚 #婚纱照</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C706" t="n">
@@ -11028,12 +11028,12 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>此刻，爱意具象化✨解锁丽江婚纱照 #婚纱照花絮 #我的旅拍 #铂爵旅拍婚纱照</t>
+          <t>你永远是我的𝑷𝒍𝒂𝒏𝑨和𝑻𝒐𝒑1 #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了 #拍摄花絮 #客片分享</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C707" t="n">
@@ -11043,12 +11043,12 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>和你在一起的每帧都甜 #婚纱照花絮 #我的摄影日记 #铂爵旅拍婚纱照</t>
+          <t>当森系婚纱照遇上法式风格🍃 #婚纱照 #客片分享 #外景拍摄花絮 #我们拍婚纱了 #旅拍</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C708" t="n">
@@ -11058,12 +11058,12 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>人生高光时刻，雪山见证自由与爱🏔️ #婚纱照花絮 #保持热爱奔赴山海 #铂爵旅拍婚纱照</t>
+          <t>春天就是甜妹主战场呀🌿 #婚纱照花絮 #森系婚纱照 #我们拍婚纱了 #每个女孩的婚纱梦 #客片分享</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C709" t="n">
@@ -11073,12 +11073,12 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>这套婚纱照能召唤全世界的多巴胺！！ #婚纱照 #从白纱到白头 #铂爵旅拍婚纱照</t>
+          <t>理想中的中式复古园林旗袍婚纱照✨太有诗意 #旗袍婚纱照 #国风 #旅拍 #旅拍婚纱照 #备婚</t>
         </is>
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C710" t="n">
@@ -11088,12 +11088,12 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>原来幸福真的会从照片里溢出来！ #我们拍婚纱了 #一定是特别的缘分 #婚纱照花絮 #铂爵旅拍婚纱照</t>
+          <t>甜甜的一辈子拿去吧你们~ #婚纱照 #旅拍 #旅拍婚纱照 #大理婚纱照 #云南旅拍</t>
         </is>
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
         </is>
       </c>
       <c r="C711" t="n">
@@ -11103,7 +11103,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>婚纱照花絮｜幸福是可以被感染的🧚‍♀️ #婚纱照花絮 #每个女孩的婚纱梦 #拍摄花絮 #我们拍婚纱了</t>
+          <t>巴厘岛的浪漫在升温🔥 #一起看海 #巴厘岛旅拍 #旅拍婚纱照 #备婚 #我的婚纱照</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -11118,7 +11118,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>00后打工人勇闯“大理”拍婚照拉 #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了 #拍摄花絮</t>
+          <t>巴厘岛婚礼｜穿越海风的婚礼现场巨浪漫 #婚纱照花絮 #我们拍婚纱了 #客片分享 #目的地婚礼</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -11133,7 +11133,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>春天的打开方式🌷花海里的大理婚纱照 #花海 #大理婚纱照 #旅拍 #婚纱照 #我的婚纱照</t>
+          <t>巴厘岛的每一处都是天然的摄影棚 #巴厘岛旅拍 #旅拍 #旅拍婚纱照 #海外旅拍 #巴厘岛婚纱照</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
@@ -11148,7 +11148,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>天啊😍拍婚纱照的时候，我被求婚啦~ #婚纱照花絮 #我们拍婚纱了 #拍摄花絮 #婚紗照</t>
+          <t>后劲太大❗️永远为大理旅拍婚纱照心动💞 #旅拍 #旅拍婚纱照 #婚纱照 #大理婚纱照 #云南旅拍</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
@@ -11163,12 +11163,12 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>破防了家人们❗年度最佳婚纱照客片来了 #婚纱照花絮 #客片分享 #我们拍婚纱了 #每个女孩的婚纱梦 #备婚</t>
+          <t>帅从来都是一种感觉 #氛围感 #一起看海</t>
         </is>
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C716" t="n">
@@ -11178,12 +11178,12 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>欢迎收看摄影人的拍照日常 #婚纱照 #旅拍 #旅拍婚纱照 #备婚 #婚纱照花絮mv</t>
+          <t>她的出现让我觉得生活是一种动词 #婚纱照花絮 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C717" t="n">
@@ -11193,12 +11193,12 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7483089666602781962</t>
+          <t>第7集 | 婚纱不是终点，是共度余生的起点 #每个女孩的婚纱梦 #婚纱照 #美出高级感</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C718" t="n">
@@ -11208,12 +11208,12 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>厦门婚纱照拍完啦！花絮被朋友圈夸爆啦哈哈 #婚纱照花絮 #每个女孩的婚纱梦 #铂爵旅拍婚纱照</t>
+          <t>婚纱不是束缚，是确定彼此的宣言 #拍摄花絮 #工作花絮</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C719" t="n">
@@ -11223,12 +11223,12 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>婚纱照是爱情最甜的证词 #婚纱照 #铂爵旅拍婚纱照 #三亚婚纱照旅拍</t>
+          <t>第8集 | 在镜头前，我们成了自己的爱情电影主角 #婚纱照花絮 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C720" t="n">
@@ -11238,12 +11238,12 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>不是 婚纱照花絮都这么好看不要命啦！ #婚纱照花絮 #拍摄花絮 #旅拍 #旅拍婚纱照 #备婚</t>
+          <t>第9集 | 浪漫无需台词，婚纱自成篇章 #婚纱照推荐 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C721" t="n">
@@ -11253,12 +11253,12 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>谁懂啊姐妹们！花絮视频都这么好看了 #婚纱照 #花絮 #旅拍 #备婚 #拍摄花絮</t>
+          <t>婚纱是道具，互动才是主角 #婚纱照花絮 #我们拍婚纱了 #真实客照</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C722" t="n">
@@ -11268,12 +11268,12 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>超火超丝滑的婚纱照转圈转场⁉️是谁还没有拍 #婚纱照 #晒一晒我的婚纱照 #婚期倒计时 #客片分享</t>
+          <t>第10集 | 不是嫁给岁月，是嫁给你 #森系婚纱照 #客片分享 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C723" t="n">
@@ -11283,12 +11283,12 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>终于轮到我拍这个掀头纱视频啦💕 #婚纱照花絮 #转场 #婚纱照 #婚纱照风格 #备婚</t>
+          <t>黑纱与玫瑰，叛逆与温柔的化学反应 #婚纱照推荐 #客片分享</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C724" t="n">
@@ -11298,12 +11298,12 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>厦门鼓浪屿教堂婚纱照 氛围感拉满 #婚纱照花絮 #目的地婚礼 #婚纱照 #旅拍 #备婚</t>
+          <t>与山川湖海为证，婚纱是自然的第三位见证人 #婚纱照推荐 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C725" t="n">
@@ -11313,12 +11313,12 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>当你有一个很会提供情绪价值的摄影师.... #旅拍 #旅拍婚纱照 #婚纱照 #婚纱照风格 #我的婚纱照</t>
+          <t>不定义风格，只定义我们的爱 #氛围感 #婚纱照 #美出高级感 #氛围感情侣照片</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C726" t="n">
@@ -11328,12 +11328,12 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>二度撒糖！花絮比婚纱照正片还让我疯狂 #婚纱照 #晒一晒我的婚纱照 #外景拍摄花絮 #备婚 #旅拍婚纱照</t>
+          <t>夕阳把婚纱染成琥珀色，心跳也慢了半拍 #婚纱照 #外景拍摄花絮</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C727" t="n">
@@ -11343,12 +11343,12 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>欢迎收看在鼓浪屿旅拍婚纱照的一天 #婚纱照花絮 #摄影师日常 #鼓浪屿旅拍 #厦门旅拍 #备婚</t>
+          <t>是谁说婚纱必须端庄！！ #婚纱照 #晒一晒我的婚纱照</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C728" t="n">
@@ -11358,12 +11358,12 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>哪个天才发明的0.5倍广角转场 #婚纱照花絮 #婚紗照 #拍摄花絮 #旅拍 #旅拍婚纱照</t>
+          <t>爱情不需要证明，但婚纱是漂亮的证据 #客片分享 #法式婚纱照 #真实客照</t>
         </is>
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C729" t="n">
@@ -11373,12 +11373,12 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>毛坯的人生VS精装的朋友圈.... #旅拍 #旅拍婚纱照 #备婚 #拍摄花絮 #婚纱照</t>
+          <t>拍婚纱照的正确打开方式：新娘扶腰，新郎扶钱包 #每个女孩的婚纱梦 #婚纱照</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C730" t="n">
@@ -11388,12 +11388,12 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>厦门鼓浪屿婚纱照拍摄花絮分享 #婚纱照花絮 #拍摄花絮 #每个女孩的婚纱 #摄影师日常 #婚纱摄影</t>
+          <t>婚纱照拍完，我悟了：爱情是美好的，但腰带是痛苦的 #客片分享 #婚纱照</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C731" t="n">
@@ -11403,12 +11403,12 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>当平时不打扮的女友开始拍婚纱照… #婚纱照花絮 #我们拍婚纱了 #拍摄花絮 #婚紗照</t>
+          <t>“你站在光里，我站在爱里 #一起看海 #婚纱照</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C732" t="n">
@@ -11418,12 +11418,12 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>早春必拍森系婚纱照！氧气感好jue~ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#森系婚纱照﻿ ﻿#氛围感婚纱照﻿ ﻿#草坪婚纱照﻿ ﻿#备婚</t>
+          <t>微胖女孩也可以拍出好看的婚纱照 #婚纱照花絮 #我们拍婚纱了</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C733" t="n">
@@ -11433,12 +11433,12 @@
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>厦门目的地婚礼6000+安全下车 小预算目的地婚礼 用婚礼的仪式 记录爱情 ﻿#目的地婚礼﻿ ﻿#厦门目的地婚礼﻿ ﻿#厦门婚纱照﻿ ﻿#旅拍婚纱照</t>
+          <t>普通人只需要花7k就可以办目的地婚礼 #婚纱照 #目的地婚礼</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C734" t="n">
@@ -11448,12 +11448,12 @@
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>你们办完目的地婚礼的嘴是真严啊！！ 没人告诉我目的地婚礼这么出片啊 ﻿#目的地婚礼﻿ ﻿#旅拍﻿ ﻿#客片分享﻿ ﻿#旅拍婚纱照﻿ ﻿#目的地婚礼推荐﻿ ﻿#旅拍婚纱照</t>
+          <t>海岸边夏天永不停歇 我对你的爱意永远热烈 #一起看海 #婚纱照花絮</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C735" t="n">
@@ -11463,12 +11463,12 @@
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>今天的客人小姐姐素颜好能扛！！ 我们家的客人尊嘟好美哇！ ﻿#婚是照花絮﻿ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照攻略﻿ ﻿#厦门婚纱照﻿ ﻿#客片分享﻿ ﻿#备婚</t>
+          <t>微胖女生找到适合自己的婚纱照风格，颜值直接弯道超车 #婚纱照 #我们拍婚纱了</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C736" t="n">
@@ -11478,12 +11478,12 @@
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>终于轮到我发婚纱照转场啦！！ ﻿#旅拍﻿ ﻿#客片分享﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照转场﻿ ﻿#小众婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#备婚</t>
+          <t>客户说“这是我理想型的小众婚纱照” #街拍婚纱照 #拍出电影感</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C737" t="n">
@@ -11493,12 +11493,12 @@
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>又是见证幸福的一天 厦门鼓浪屿客片 姐妹们拍婚纱照一定要记得拍哦！ 太甜啦啊啊啊啊 ﻿#旅拍﻿ ﻿#客片分享﻿ ﻿#旅拍婚纱照﻿ ﻿#厦门鼓浪屿﻿ ﻿#婚纱照客片﻿ ﻿#鼓浪屿﻿ ﻿#备婚﻿ ﻿#婚纱照</t>
+          <t>十年后翻看，依然心跳加速的婚纱照 #每个女孩的婚纱梦 #客片分享 #美出高级感</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C738" t="n">
@@ -11508,12 +11508,12 @@
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>超甜超甜的转场来啦！厦门鼓浪屿婚纱照 ﻿#客片分享﻿ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照转场﻿ ﻿#厦门婚纱照推荐﻿ ﻿#鼓浪屿﻿ ﻿#备婚</t>
+          <t>这个转场终于轮到我拍啦 #婚纱照花絮 #拍摄花絮 #我们拍婚纱了</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C739" t="n">
@@ -11523,12 +11523,12 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>今日份厦门鼓浪屿婚纱照拍摄花絮 比起漂亮，我更爱这生动的瞬间 ﻿#厦门婚纱照﻿ ﻿#旅拍﻿ ﻿#婚纱照﻿ ﻿#备婚﻿ ﻿#我的婚纱照﻿ ﻿#客片分享﻿ ﻿#婚纱照花絮﻿ ﻿#婚纱照风格</t>
+          <t>来杭州旅游，怎么能不拍一组旗袍呢</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C740" t="n">
@@ -11538,12 +11538,12 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>欢迎收看在鼓浪屿旅拍婚纱照的一天</t>
+          <t>哪个女孩能拒绝这种凤冠霞帔的婚纱照啊 #新国风中式婚纱推荐 #客片分享</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C741" t="n">
@@ -11553,12 +11553,12 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>啊啊春天就是甜妹主战场呀🌿森系婚纱照 “我知道，会有一个春天遇见你” ﻿#旅拍﻿ ﻿#婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#备婚﻿ ﻿#森系婚纱照﻿ ﻿#草坪婚纱照﻿ ﻿#外景婚纱照</t>
+          <t>可她穿上婚纱的样子真的超美的耶 #每个女孩的婚纱梦 #婚纱照花絮</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C742" t="n">
@@ -11568,12 +11568,12 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>我不理解😅为什么大家都去三亚拍婚纱照？ 浅浅分享一下今天的客人小姐姐 三亚旅拍婚纱照花絮 已经开始期待 期待成片 ﻿#旅拍﻿ ﻿#三亚旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#我的婚纱照﻿ ﻿#备婚</t>
+          <t>分享普通女生拍婚纱照一天都在做什么 #婚纱照花絮 #拍摄花絮</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C743" t="n">
@@ -11583,12 +11583,12 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>凤冠霞帔是我最大的诚意❤️ .🏮三书六礼，十里红妆， 🏮凤冠霞帔，锦衣华裳。 ﻿#中式婚纱照﻿ ﻿#婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#婚纱照避雷﻿ ﻿#婚纱照风格﻿ ﻿#备婚﻿ ﻿#旅拍</t>
+          <t>嫁给爱情的样子，每一帧都是幸福感 #婚纱照 #我们拍婚纱了</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C744" t="n">
@@ -11598,12 +11598,12 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>沉浸式体验婚纱照摄影师的一天Vlog ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#沉浸式体验﻿ ﻿#婚纱照vlog﻿ ﻿#备婚﻿ ﻿#拍摄花絮</t>
+          <t>姿势僵？有摄影师引导秒变镜头女王 #工作花絮 #拍摄花絮</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C745" t="n">
@@ -11613,12 +11613,12 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>欢迎收看在鼓浪屿旅拍婚纱照的一天 ﻿#客片分享﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#我的婚纱照﻿ ﻿#备婚﻿ ﻿#婚纱照风格﻿ ﻿#旅拍</t>
+          <t>十年后翻看，依然心跳加速的婚纱照 #婚纱照花絮 #每个女孩的婚纱梦</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C746" t="n">
@@ -11628,12 +11628,12 @@
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>哪个天才发明的0.5倍广角转场啊！！ ﻿#厦门旅拍﻿ ﻿#鼓浪屿婚纱照推荐﻿ ﻿#厦门婚纱照﻿ ﻿#客片分享﻿ ﻿#备婚</t>
+          <t>人生不就活几个瞬间 #巴厘岛 #婚纱照花絮</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C747" t="n">
@@ -11643,12 +11643,12 @@
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>毛坯的人生VS精装的朋友圈.... 一生要强的出片女人啊 ﻿#夜景﻿ ﻿#旅拍﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#我的婚纱照﻿ ﻿#备婚</t>
+          <t>穿越人山人海去看山河大海 #婚纱照花絮 #海岛度假</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C748" t="n">
@@ -11658,12 +11658,12 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>其实每张好看的婚纱照背后都是我狼狈的样子 每一个出片的背后都有一个抽象努力的摄影师没错了﻿#客片分享﻿ ﻿#拍摄花絮﻿ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#小众婚纱照﻿ ﻿#婚纱照攻略﻿ ﻿#婚纱照攻略﻿ ﻿#鼓浪屿婚纱照﻿ ﻿#备婚</t>
+          <t>在巴厘岛拍到了人生绝美壁纸 #客片分享 #婚纱照</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C749" t="n">
@@ -11673,12 +11673,12 @@
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>和不扫兴的对象拍婚纱照转场~客片分享 和不扫兴的对象拍这个转场太甜啦！！！ ﻿#客片分享﻿ ﻿#婚纱照转场﻿ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#婚纱照推荐﻿ ﻿#婚纱照花絮</t>
+          <t>邂逅南纬8°的浪漫</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C750" t="n">
@@ -11688,12 +11688,12 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>没有生命力的婚纱照我不拍！厦门客片分享 今天的客户妹妹超甜哇 “全自动模特” 表现力真的绝 整个氛围感看着还有感染力呀 ﻿#客片分享﻿ ﻿#婚纱照﻿ ﻿#我的婚纱照﻿ ﻿#备婚﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#厦门婚纱照﻿ ﻿#鼓浪屿</t>
+          <t>过自己喜欢的生活，拍自己想拍的婚纱照 #婚纱照 #巴厘岛</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C751" t="n">
@@ -11703,12 +11703,12 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>刚从厦门鼓浪屿回来 能劝一个是一个！ 拍摄地：厦门鼓浪屿天主教堂 今天的客人好美好甜啊~ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#厦门鼓浪屿﻿ ﻿#鼓浪屿﻿ ﻿#教堂﻿ ﻿#厦门﻿ ﻿#备婚</t>
+          <t>是化妆师稱亦是幸福見證者 #婚纱照花絮 #每个女孩的婚纱</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C752" t="n">
@@ -11718,12 +11718,12 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>当我用2倍到0.5倍拍婚纱照转场 就会得到.. 到底是哪个天才发明的0.5倍广角转场 下次官宣这样拍 谁看了不被甜到呀💕 ﻿#客片分享﻿ ﻿#旅拍﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#我的婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#备婚﻿ ﻿#鼓浪屿</t>
+          <t>在杭州拍到了理想中的婚纱照了 #婚纱照花絮 #婚纱摄影</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C753" t="n">
@@ -11733,12 +11733,12 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>00后拍的婚纱照太有幸福感了 厦门客片分享 甜甜的婚纱照转场终于拍上啦 ﻿#旅拍﻿ ﻿#婚纱照﻿ ﻿#客片分享﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照转场﻿ ﻿#备婚﻿ 5 天前 福建</t>
+          <t>因为幸福而有闪闪发光的生动 #和春天的花花合个影</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
         </is>
       </c>
       <c r="C754" t="n">
@@ -11748,15 +11748,2820 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
+          <t>太爱我婚纱照的造型了！恨不得焊亖在脸上 #拍摄花絮 #能扛住原相机质感妆容</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>此刻 来年 都幸福 #我们拍婚纱了 #旅拍</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>欢迎收看一个普通摄影师日常工作的vlog #婚纱照花絮 #摄影约拍</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>每张照片下的浪漫是爱意的具像化 #婚纱照花絮 #我们拍婚纱了</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>拥有一个超会引导的摄影师是一种什么体验 #春天与汉服有多适配 #春天穿汉服去赏花呀</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>90后普通化妆师一天都在做什么 #婚纱照 #一起看海</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>论找一个懂自己想要的化妆师的重要性！ #婚纱照花絮 #花絮</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>幸福，在此刻变得巨象化～ #婚纱照花絮 #拍摄花絮 #工作花絮</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>遇到同频的摄影师真的缘分 #工作花絮 #拍摄花絮</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>和心爱的人结婚，就像打了一场胜仗！ #拍婚纱婚纱花絮 #每个女孩的婚纱梦</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>情绪会被传染，浪漫也是婚纱照里的生命力 #婚纱照花絮 #我们拍婚纱了 #总要拍一次藏服写真吧</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>婚纱照的意义，远不止是记录美丽的瞬间</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>成片先等等！！花絮抢先看下！ #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>圆脸女孩画这个妆完全和精灵一样！</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>拍了3套婚纱照，大家觉得哪套最适合我 #婚纱照花絮 #客片分享</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>沉浸式带大家看下厦门鼓浪屿门店基地 #同城好店推荐 #工作花絮</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>大家都说好幸福好有气质 #婚纱照花絮 #拍摄花絮</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>比美照更有杀伤力的是生命力 #婚纱照花絮 #客片分享</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>大家觉得我完成客户想要的么 #婚纱照花絮 #一起看海 #情侣拍照姿势</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>拍照重要的当然是摄影师的引导啦 #婚纱照花絮 #拍摄花絮 #街拍</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>拍婚纱照一天都在做什么呢 #拍摄花絮 #工作花絮</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>这次 我站在幸福里 #每个女孩的婚纱梦</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>woxjrqDwAA3oNepZs2BFqRFMgR7iytxQ</t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>用婚纱照把幸福存档备份📸 #晒一晒我的婚纱照 #婚纱照 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>新风格来啦！甜酷天花板也不过如此~ #外景拍摄花絮 #客片分享 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>原来幸福真的会让人变回小孩 #婚纱照花絮 #我们拍婚纱了 #拍出电影感 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>在丽江拍到了我的人生婚纱照！ #婚纱照花絮 #总要拍一次藏服写真吧 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>婚纱照的意义，远不止是记录美丽的瞬间 #婚纱照花絮 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>婚纱照是给未来的情书 #婚纱照花絮 #拍摄花絮 #每个女孩的婚纱梦 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>镜头里的浪漫，是我们相爱的证据 #婚纱照花絮 #我们拍婚纱了 #摄影约拍 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>婚纱照是给未来的情书呀 #婚纱照花絮 #每个女孩的婚纱梦 #拍摄花絮 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>花仙子的婚纱照花絮✨森系氛围太美啦💐 #婚纱照花絮 #每个女孩的婚纱梦 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>花絮已经美的不像话✨这样穿婚纱也太甜美叭 #外景拍摄花絮 #每个女孩的婚纱梦 #婚纱照 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>绝美复古婚纱照🪄我愿称之为氛围感之神❗ #拍摄花絮 #婚纱照花絮 #油画风 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>你眼中有星河，我眼中有你 #婚纱照花絮 #每个女孩的婚纱梦 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>欢迎收看我的巴厘岛旅拍vlog~~ #巴厘岛 #婚纱照花絮 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>巴厘岛旅拍 精神和身体的双重治愈🏝️</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>去巴厘岛玩啦！顺便结了个婚～目的地婚礼</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>巴厘岛拍摄花絮分享</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>浪漫加倍💕我的婚纱照被拍成了目的地婚礼💍 #目的地婚礼 #深圳婚纱照 #我的婚纱照 #旅拍 #旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C793" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>欢迎收看婚纱摄影人的工作日常 #摄影师 #旅拍 #旅拍婚纱照 #备婚 #拍摄花絮</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C794" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>三亚旅拍婚纱照花絮来啦！！ #三亚旅拍 #三亚婚纱照 #旅拍婚纱照 #客片分享 #拍摄花絮</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C795" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>摄影师最紧张的时刻.... #旅拍 #旅拍婚纱照 #丽江旅拍 #丽江婚纱照 #备婚</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C796" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>素颜一般，但是化妆后也太… #化妆造型分享 #妆面记录 #拍摄花絮 #客片分享 #婚纱照花絮</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C797" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>镜头里的浪漫，是我们相爱的证据 #婚纱照花絮 #海边拍照 #旅拍 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C798" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>婚纱照里的我们闪闪发光 #每个女孩的婚纱梦 #婚纱照 #外景拍摄花絮 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C799" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>婚纱照之：天气预报请查收！ #婚纱照花絮 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C800" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>向海风许愿，在山海相见 #婚纱照花絮 #拍摄花絮 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C801" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>欢迎收看拍摄现场：专业团队在线吃瓜 #婚纱照花絮 #我们拍婚纱了 #旅拍 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C802" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>三亚婚纱照花絮好喜欢！比正片还甜！磕上头了</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C803" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>巴厘岛泳池婚纱照！没人告诉过我这么好看啊</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C804" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>深圳婚纱照安全下车啦！成片更惊艳！</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C805" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>客户拍婚纱照一日vlpg花絮｜深圳婚纱照</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C806" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>有谁懂这个法式的含金量！！ ﻿#铂爵旅拍婚纱照﻿ ﻿#法式婚纱照﻿ ﻿#厦门旅拍﻿ ﻿#室内婚纱照﻿ ﻿#婚纱照</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C807" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>和喜欢的人拍照真的会发光✨ ﻿#婚纱照﻿ ﻿#备婚﻿ ﻿#厦门婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#丽江婚纱照﻿ ﻿#大理婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C808" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>春天就要这么拍！谁能拒绝鲜花婚纱照🌸 ﻿#婚纱照﻿ ﻿#户外婚纱照﻿ ﻿#春日婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C809" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>如果幸福是酵母，那我就是一块蓬松的小面包 ﻿#厦门婚纱照﻿ ﻿#备婚﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C810" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>用婚纱照把幸福存档备份📸 ﻿#铂爵旅拍婚纱照﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#厦门婚纱照</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C811" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>欢迎收看90后婚纱照化妆师的一天 ﻿#化妆师vlog﻿ ﻿#铂爵旅拍婚纱照﻿ ﻿#婚纱照﻿ ﻿#婚纱照vlog﻿ ﻿#婚纱照</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C812" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>把「开心」写在婚纱照的每个像素里 ﻿#铂爵旅拍婚纱照﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#小众婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#丽江婚纱照﻿ ﻿#大理婚纱照</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C813" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>被新中式硬控30s，真的太美了！ ﻿#新中式婚纱照﻿ ﻿#中式婚纱照﻿ ﻿#厦门婚纱照</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C814" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>春日必拍！花环公主的婚纱照花絮✨ ﻿#春日婚纱照﻿ ﻿#氧气感﻿ ﻿#婚纱照花絮﻿ ﻿#厦门婚纱照</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C815" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>city walk！就是要拍这么酷的婚纱照 ﻿#街拍婚纱照﻿ ﻿#甜酷婚纱照﻿ ﻿#婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C816" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>此刻，爱意具象化✨ ﻿#婚纱照﻿ ﻿#旅拍﻿ ﻿#婚纱照风格﻿ ﻿#丽江婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C817" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>谁懂呀❗微胖新娘也能拍出高级感✨ #婚纱照花絮 #我们拍婚纱了 #婚期倒计时 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C818" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>和不扫兴的对象拍婚纱照转场~ #婚纱照花絮 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C819" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>此刻，爱意具象化✨解锁丽江婚纱照 #婚纱照花絮 #我的旅拍 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>和你在一起的每帧都甜 #婚纱照花絮 #我的摄影日记 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C821" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>人生高光时刻，雪山见证自由与爱🏔️ #婚纱照花絮 #保持热爱奔赴山海 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C822" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>这套婚纱照能召唤全世界的多巴胺！！ #婚纱照 #从白纱到白头 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C823" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>原来幸福真的会从照片里溢出来！ #我们拍婚纱了 #一定是特别的缘分 #婚纱照花絮 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C824" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>婚纱照花絮｜幸福是可以被感染的🧚‍♀️ #婚纱照花絮 #每个女孩的婚纱梦 #拍摄花絮 #我们拍婚纱了</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C825" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>00后打工人勇闯“大理”拍婚照拉 #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了 #拍摄花絮</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C826" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>春天的打开方式🌷花海里的大理婚纱照 #花海 #大理婚纱照 #旅拍 #婚纱照 #我的婚纱照</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C827" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>天啊😍拍婚纱照的时候，我被求婚啦~ #婚纱照花絮 #我们拍婚纱了 #拍摄花絮 #婚紗照</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>破防了家人们❗年度最佳婚纱照客片来了 #婚纱照花絮 #客片分享 #我们拍婚纱了 #每个女孩的婚纱梦 #备婚</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C829" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>欢迎收看摄影人的拍照日常 #婚纱照 #旅拍 #旅拍婚纱照 #备婚 #婚纱照花絮mv</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C830" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7483089666602781962</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C831" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>厦门婚纱照拍完啦！花絮被朋友圈夸爆啦哈哈 #婚纱照花絮 #每个女孩的婚纱梦 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C832" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>婚纱照是爱情最甜的证词 #婚纱照 #铂爵旅拍婚纱照 #三亚婚纱照旅拍</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C833" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>不是 婚纱照花絮都这么好看不要命啦！ #婚纱照花絮 #拍摄花絮 #旅拍 #旅拍婚纱照 #备婚</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C834" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>谁懂啊姐妹们！花絮视频都这么好看了 #婚纱照 #花絮 #旅拍 #备婚 #拍摄花絮</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C835" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>超火超丝滑的婚纱照转圈转场⁉️是谁还没有拍 #婚纱照 #晒一晒我的婚纱照 #婚期倒计时 #客片分享</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C836" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>终于轮到我拍这个掀头纱视频啦💕 #婚纱照花絮 #转场 #婚纱照 #婚纱照风格 #备婚</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C837" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>厦门鼓浪屿教堂婚纱照 氛围感拉满 #婚纱照花絮 #目的地婚礼 #婚纱照 #旅拍 #备婚</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C838" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>当你有一个很会提供情绪价值的摄影师.... #旅拍 #旅拍婚纱照 #婚纱照 #婚纱照风格 #我的婚纱照</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C839" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>二度撒糖！花絮比婚纱照正片还让我疯狂 #婚纱照 #晒一晒我的婚纱照 #外景拍摄花絮 #备婚 #旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C840" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>欢迎收看在鼓浪屿旅拍婚纱照的一天 #婚纱照花絮 #摄影师日常 #鼓浪屿旅拍 #厦门旅拍 #备婚</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C841" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>哪个天才发明的0.5倍广角转场 #婚纱照花絮 #婚紗照 #拍摄花絮 #旅拍 #旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C842" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>毛坯的人生VS精装的朋友圈.... #旅拍 #旅拍婚纱照 #备婚 #拍摄花絮 #婚纱照</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C843" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>厦门鼓浪屿婚纱照拍摄花絮分享 #婚纱照花絮 #拍摄花絮 #每个女孩的婚纱 #摄影师日常 #婚纱摄影</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C844" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>当平时不打扮的女友开始拍婚纱照… #婚纱照花絮 #我们拍婚纱了 #拍摄花絮 #婚紗照</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>早春必拍森系婚纱照！氧气感好jue~ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#森系婚纱照﻿ ﻿#氛围感婚纱照﻿ ﻿#草坪婚纱照﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C846" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>厦门目的地婚礼6000+安全下车 小预算目的地婚礼 用婚礼的仪式 记录爱情 ﻿#目的地婚礼﻿ ﻿#厦门目的地婚礼﻿ ﻿#厦门婚纱照﻿ ﻿#旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C847" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>你们办完目的地婚礼的嘴是真严啊！！ 没人告诉我目的地婚礼这么出片啊 ﻿#目的地婚礼﻿ ﻿#旅拍﻿ ﻿#客片分享﻿ ﻿#旅拍婚纱照﻿ ﻿#目的地婚礼推荐﻿ ﻿#旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C848" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>今天的客人小姐姐素颜好能扛！！ 我们家的客人尊嘟好美哇！ ﻿#婚是照花絮﻿ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照攻略﻿ ﻿#厦门婚纱照﻿ ﻿#客片分享﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C849" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>终于轮到我发婚纱照转场啦！！ ﻿#旅拍﻿ ﻿#客片分享﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照转场﻿ ﻿#小众婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>又是见证幸福的一天 厦门鼓浪屿客片 姐妹们拍婚纱照一定要记得拍哦！ 太甜啦啊啊啊啊 ﻿#旅拍﻿ ﻿#客片分享﻿ ﻿#旅拍婚纱照﻿ ﻿#厦门鼓浪屿﻿ ﻿#婚纱照客片﻿ ﻿#鼓浪屿﻿ ﻿#备婚﻿ ﻿#婚纱照</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C851" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>超甜超甜的转场来啦！厦门鼓浪屿婚纱照 ﻿#客片分享﻿ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照转场﻿ ﻿#厦门婚纱照推荐﻿ ﻿#鼓浪屿﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C852" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>今日份厦门鼓浪屿婚纱照拍摄花絮 比起漂亮，我更爱这生动的瞬间 ﻿#厦门婚纱照﻿ ﻿#旅拍﻿ ﻿#婚纱照﻿ ﻿#备婚﻿ ﻿#我的婚纱照﻿ ﻿#客片分享﻿ ﻿#婚纱照花絮﻿ ﻿#婚纱照风格</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C853" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>欢迎收看在鼓浪屿旅拍婚纱照的一天</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C854" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>啊啊春天就是甜妹主战场呀🌿森系婚纱照 “我知道，会有一个春天遇见你” ﻿#旅拍﻿ ﻿#婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#备婚﻿ ﻿#森系婚纱照﻿ ﻿#草坪婚纱照﻿ ﻿#外景婚纱照</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C855" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>我不理解😅为什么大家都去三亚拍婚纱照？ 浅浅分享一下今天的客人小姐姐 三亚旅拍婚纱照花絮 已经开始期待 期待成片 ﻿#旅拍﻿ ﻿#三亚旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#我的婚纱照﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C856" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>凤冠霞帔是我最大的诚意❤️ .🏮三书六礼，十里红妆， 🏮凤冠霞帔，锦衣华裳。 ﻿#中式婚纱照﻿ ﻿#婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#婚纱照避雷﻿ ﻿#婚纱照风格﻿ ﻿#备婚﻿ ﻿#旅拍</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C857" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>沉浸式体验婚纱照摄影师的一天Vlog ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#沉浸式体验﻿ ﻿#婚纱照vlog﻿ ﻿#备婚﻿ ﻿#拍摄花絮</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C858" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>欢迎收看在鼓浪屿旅拍婚纱照的一天 ﻿#客片分享﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#我的婚纱照﻿ ﻿#备婚﻿ ﻿#婚纱照风格﻿ ﻿#旅拍</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C859" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>哪个天才发明的0.5倍广角转场啊！！ ﻿#厦门旅拍﻿ ﻿#鼓浪屿婚纱照推荐﻿ ﻿#厦门婚纱照﻿ ﻿#客片分享﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C860" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>毛坯的人生VS精装的朋友圈.... 一生要强的出片女人啊 ﻿#夜景﻿ ﻿#旅拍﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#我的婚纱照﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C861" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>其实每张好看的婚纱照背后都是我狼狈的样子 每一个出片的背后都有一个抽象努力的摄影师没错了﻿#客片分享﻿ ﻿#拍摄花絮﻿ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#小众婚纱照﻿ ﻿#婚纱照攻略﻿ ﻿#婚纱照攻略﻿ ﻿#鼓浪屿婚纱照﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C862" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>和不扫兴的对象拍婚纱照转场~客片分享 和不扫兴的对象拍这个转场太甜啦！！！ ﻿#客片分享﻿ ﻿#婚纱照转场﻿ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#婚纱照推荐﻿ ﻿#婚纱照花絮</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C863" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>没有生命力的婚纱照我不拍！厦门客片分享 今天的客户妹妹超甜哇 “全自动模特” 表现力真的绝 整个氛围感看着还有感染力呀 ﻿#客片分享﻿ ﻿#婚纱照﻿ ﻿#我的婚纱照﻿ ﻿#备婚﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#厦门婚纱照﻿ ﻿#鼓浪屿</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C864" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>刚从厦门鼓浪屿回来 能劝一个是一个！ 拍摄地：厦门鼓浪屿天主教堂 今天的客人好美好甜啊~ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#厦门鼓浪屿﻿ ﻿#鼓浪屿﻿ ﻿#教堂﻿ ﻿#厦门﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C865" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>当我用2倍到0.5倍拍婚纱照转场 就会得到.. 到底是哪个天才发明的0.5倍广角转场 下次官宣这样拍 谁看了不被甜到呀💕 ﻿#客片分享﻿ ﻿#旅拍﻿ ﻿#婚纱照﻿ ﻿#旅拍婚纱照﻿ ﻿#我的婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#备婚﻿ ﻿#鼓浪屿</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C866" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>00后拍的婚纱照太有幸福感了 厦门客片分享 甜甜的婚纱照转场终于拍上啦 ﻿#旅拍﻿ ﻿#婚纱照﻿ ﻿#客片分享﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照转场﻿ ﻿#备婚﻿ 5 天前 福建</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C867" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
           <t>又是被婚纱照原片花絮硬控的一天‼️ #婚纱照花絮 #每个女孩的婚纱梦 #拍摄花絮 #我们拍婚纱了</t>
         </is>
       </c>
-      <c r="B755" t="inlineStr">
-        <is>
-          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
-        </is>
-      </c>
-      <c r="C755" t="n">
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C868" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>用婚纱照转场😎开启我的人生新副本啦～ #婚纱照转场 #旅拍 #旅拍婚纱照 #备婚 #花絮</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C869" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>秒变春日甜妹🌸每一帧都是心动瞬间 #甜妹 #春日 #妆造 #婚纱照 #客片分享</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C870" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>来拍婚纱照怎么能不拍这个转场 #婚纱照转场 #转场 #旅拍 #旅拍婚纱照 #花絮</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C871" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>包出片的！拍婚纱照角度越刁钻越出片！ #厦门婚纱照 #婚纱照 #拍摄花絮 #旅拍</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C872" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>啊啊啊是谁还没有来厦门！！太好拍了吧！！ #婚纱照花絮mv #街拍婚纱照 #婚紗照 #外景拍摄</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C873" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>00后婚纱妆造已经next level~ #化妆师 #妆造 #厦门旅拍 #婚纱照 #备婚</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C874" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>镜头反转对着相爱的我们~厦门旅拍 #旅拍婚纱照 #婚纱照 #婚纱照风格 #备婚 #厦门旅拍</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C875" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>拍婚纱照的时候老公也是有任务的... #婚纱照花絮 #婚纱👰 #每个女孩的婚纱梦 #拍摄花絮 #婚紗照</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C876" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>人生就要充满passion~ #旅拍 #旅拍婚纱照 #旅拍vlog #婚纱照 #备婚</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C877" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>今天的最美新娘❤️小姐姐好甜好温柔 #婚纱照 #婚纱照花絮 #婚纱照分享 #客片 #备婚</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C878" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>💕婚纱+草坪+恋人=极致浪漫～ #婚纱照 #婚纱照风格 #花絮 #旅拍 #备婚</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C879" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>到底是谁的crush啊 #婚纱 #旅拍 #婚纱照 #客片 #花絮</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C880" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>拿下！是我想要的小清新婚礼Mv #微电影 #婚纱照花絮 #旅拍 #婚纱照 #客片分享</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C881" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>巴厘岛旅拍花絮分享 #旅拍 #婚纱照 #客片分享 #旅拍婚纱照 #巴厘岛</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C882" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>美晕了！！拍到了我的人生婚纱照 ﻿#婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#海边婚纱照﻿ ﻿#教堂婚纱照﻿ ﻿#铂爵﻿ ﻿#铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C883" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>海边日落！谁懂金色婚纱照的含金量！ ﻿#厦门婚纱照﻿ ﻿#海边婚纱照﻿ ﻿#婚纱照﻿ ﻿#铂爵旅拍婚纱照﻿ ﻿#铂爵</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C884" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>性价比爆棚！💰 10s了解旅拍婚纱照套餐 ﻿#旅拍婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#旅拍婚纱照价格﻿ ﻿#铂爵旅拍婚纱照﻿ ﻿#铂爵旅拍﻿ ﻿#丽江婚纱照﻿ ﻿#大理婚纱照﻿ ﻿#三亚婚纱照</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C885" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>被朋友问疯了！我的丽江婚纱照也太酷了吧 ﻿#丽江婚纱照﻿ ﻿#大理婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C886" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>论一个会引导的摄影师的重要性！ ﻿#婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#铂爵旅拍婚纱照﻿ ﻿#铂爵﻿ ﻿#备婚﻿ ﻿#婚纱照推荐</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C887" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>不动声色的东方美学❤️太有氛围感了 ﻿#新中式婚纱照﻿ ﻿#中式婚纱照﻿ ﻿#一生要出片的要强女人﻿ ﻿#铂爵旅拍﻿ ﻿#铂爵</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C888" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>欢迎收看00后女生在丽江的婚纱照vlog ﻿#婚纱照vlog﻿ ﻿#婚纱照花絮</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C889" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>🎬婚纱照Vlog 💗体验女明星的一天 ﻿#婚纱照vlog﻿ ﻿#记录生活﻿ ﻿#备婚﻿ ﻿#婚纱照</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C890" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>婚纱照就是甜蜜的密码呀！ ﻿#婚纱照﻿ ﻿#我们拍婚纱照啦﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C891" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>春日限定~跑进明媚又鲜活的春天🌸 ﻿#婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#厦门婚纱照﻿ ﻿#丽江婚纱照﻿ ﻿#铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C892" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>拿下！是我想要的小清新婚礼微电影 ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#婚前微电影﻿ ﻿#微电影﻿ ﻿#婚礼纪实</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C893" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>用婚纱照转场😎开启我的人生新副本 ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#转场﻿ ﻿#婚纱照推荐﻿ ﻿#婚纱照风格﻿ ﻿#花絮</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C894" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>00后婚纱妆造已经next level~ ﻿#妆造﻿ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#每个女孩的婚纱梦﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C895" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>拍婚纱照的时候老公也是有任务的... ﻿#厦门鼓浪屿﻿ ﻿#旅拍﻿ ﻿#客片分享﻿ ﻿#旅拍婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#婚纱照风格</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C896" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>巴厘岛旅拍花絮分享 ﻿#巴厘岛旅拍﻿ ﻿#婚纱照﻿ ﻿#旅拍﻿ ﻿#客片分享﻿ ﻿#花絮分享</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C897" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>人生就要充满passion~三亚客片花絮分享 ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#三亚旅拍﻿ ﻿#三亚旅拍婚纱照﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C898" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>秒变春日甜妹🌸每一帧都是心动瞬间 客片 ﻿#春日﻿ ﻿#甜妹﻿ ﻿#森系﻿ ﻿#婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#婚纱照推荐﻿ ﻿#旅拍</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C899" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>💕婚纱+草坪+恋人=极致浪漫 ﻿#婚纱照风格﻿ ﻿#婚纱照﻿ ﻿#旅拍﻿ ﻿#草坪婚纱照﻿ ﻿#备婚﻿ ﻿#三亚旅拍</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C900" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>镜头反转对着相爱的我们~ ﻿#婚纱照花絮﻿ ﻿#婚纱照推荐﻿ ﻿#旅拍﻿ ﻿#厦门婚纱照﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C901" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>啊啊啊是谁还没有来厦门！！太好拍了吧！ ﻿#婚纱照花絮﻿ ﻿#婚纱照推荐﻿ ﻿#旅拍﻿ ﻿#厦门</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C902" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>包出片的！拍婚纱照角度越刁钻越出片 ﻿#婚纱照花絮﻿ ﻿#婚纱照推荐﻿ ﻿#旅拍﻿ ﻿#小众婚纱照﻿ ﻿#厦门婚纱照</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C903" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>今天的客妹好甜哇~ ﻿#厦门婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#婚纱照花絮﻿ ﻿#旅拍</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C904" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>今日份在厦门鼓浪屿的拍摄花絮 ﻿#婚纱照花絮﻿ ﻿#旅拍﻿ ﻿#厦门鼓浪屿﻿ ﻿#婚纱照推荐﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C905" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>把你们拍好看是我的使命 ﻿#婚纱照花絮﻿ ﻿#拍摄花絮﻿ ﻿#婚纱照推荐﻿ ﻿#旅拍</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C906" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>谁懂啊！微胖肉肉新娘在大理拍到了人生照片！ #大码女生 #大理婚纱照 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C907" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>美晕了！！拍到了我的人生婚纱照 #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C908" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>婚纱照就是甜蜜的密码呀！ #婚纱照花絮 #每个女孩的婚纱 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C909" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>海边日落！谁懂金色婚纱照的含金量！ #婚纱照 #和喜欢的人在一起 #铂爵旅拍婚纱照 #海边婚纱照</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C910" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>论一个会引导的摄影师的重要性！ #婚纱照 #备婚 #旅拍婚纱照 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C911" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>🎬婚纱照Vlog 💗体验女明星的一天 #婚纱照花絮 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C912" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>欢迎收看00后女生在丽江的婚纱照vlog #婚纱照花絮 #每个女孩的婚纱梦 #我们拍婚纱了 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C913" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>被朋友问疯了！我的丽江婚纱照也太酷了吧 #婚纱照花絮 #高级感黑色婚纱照怎么拍 #高级感 #丽江婚纱照 #铂爵旅拍</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C914" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>不动声色的东方美学❤️太有氛围感了 #东方美学 #国风古韵 #铂爵旅拍婚纱照</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C915" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>春日限定~跑进明媚又鲜活的春天🌸 #这是属于春天的氛围感 #婚纱照 #镜头是爱意的具象化 #铂爵旅拍</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C916" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>有点癫但超出片的pose！为了拍婚纱照我也是拼了！ #每个女孩的婚纱梦 #韩女拍照技巧 #拍照技巧 #婚纱照</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAyg4Fo2XsKKpyN2ddTByrGw</t>
+        </is>
+      </c>
+      <c r="C917" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>太好了是甜妹🎀～中式喜嫁婚纱照有救了 新中式喜嫁婚服+目的地婚礼现场 甜蜜俏皮又充满仪式感 直接统一了全家人审美 怎么都看不腻 ﻿#旅拍﻿ ﻿#婚纱照风格﻿ ﻿#喜嫁婚纱照﻿ ﻿#婚纱照推荐﻿ ﻿#旅拍婚纱照﻿ ﻿#备婚﻿ ﻿#客片分享</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C918" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>我真的被这组韩式教堂婚纱照美到失语了 喜欢仪式感的姐妹们可以直接冲 轻轻松松拍出人生照片📷 ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#厦门婚纱照﻿ ﻿#我的婚纱照﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C919" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>森系仙女新娘🦋体验卡➕1 万物与少女皆是明媚与自由 备婚必拍的森系婚纱照 ﻿#婚纱照风格﻿ ﻿#婚纱照﻿ ﻿#旅拍﻿ ﻿#森系婚纱照﻿ ﻿#备婚﻿ ﻿#客片分享﻿ ﻿#备婚攻略</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C920" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>云南的浪漫❤️洱海占了一半 大理旅拍 拍摄地：大理 使人沉醉夏日的微风 带着暖暖的温度 温柔的质感里 散发着天然的气息 ﻿#客片分享﻿ ﻿#大理婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#备婚</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C921" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>终于蹲到了！原来8服8造婚纱照套餐这么划算 全国旅拍城市：厦门三亚大理丽江深圳杭州川西新疆巴厘岛... 服务套餐： ✅价格：一价全包，无任何隐形消费 ✅套餐：3000元婚纱照抵用券 ✅妆造：8服8造+内外景双拍+风格任选 ✅服务：底片全送+产品包邮到家 ✅产品：相框+相册+摆台+迎宾海报... ✅售后：全程管家式服务+不满意重拍 ------------------------------------- 🎀关注&amp;私信回复“1”获取最新报价 🎀关注&amp;私信回复“2”获取更多客片 ﻿#旅拍﻿ ﻿#旅拍婚纱照﻿ ﻿#客片分享﻿ ﻿#丽江婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#备婚﻿ ﻿#客片分享﻿ ﻿#婚纱照套餐</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C922" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>婚纱照套餐推荐 一价全包➕内外景双拍 服务套餐： ✅价格：一价全包，无任何隐形消费 ✅妆造：8服8造+内外景双拍+风格任选 ✅底片：底片全送+产品包邮到家 ✅产品：相框+相册+摆台+迎宾海报... ✅售后：全程管家式服务+不满意重拍</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAK82qyCzpjIcBICu7BHvxhg</t>
+        </is>
+      </c>
+      <c r="C923" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>素人拍这样的三亚婚纱照看一千遍都不会腻吧 📥左下角私信扣【1】获取更多优惠活动 📷拍摄：@伯爵旅拍 💯真实客片 / 椰林、大海、草坪🌴 你和我邂逅自然 空气中满是阳光和海水的味道🌊 深沉的绿意里藏满了我们浓浓的爱意 / 🔸服务套餐： 【价格】一价全包，无任何隐形消费 【妆造】8服8造+内外景双拍+风格任选 【底片】底片全送+产品包邮到家 【产品】相框+相册+摆台+迎宾海报... ------------------------------------- 关注&amp;私信回复“1”获取最新报价 关注&amp;私信回复“2”获取更多客片 ------------------------------------- #铂爵旅拍 #旅拍婚纱照 #旅拍 #海景婚纱照 #婚纱照 #伯爵旅拍 #三亚婚纱照 #三亚婚纱照推荐 #三亚婚纱照旅拍 #三亚婚纱照攻略</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C924" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>厦门婚纱照客片｜春夏季的心动信号💓 📥左下角私信扣【1】获取更多优惠活动 📷拍摄：@伯爵旅拍 💯真实客片 / 晨曦为蕾丝裙摆镀上蔷薇色糖霜 每一寸光晕都在编织少女心事的柔焦滤镜 镜头捕捉的呼吸瞬间 都浸满荔枝汽水的清甜🍃   像闯入宫崎骏笔下的精灵花园 蓬松头纱藏不住眼角漫溢的草莓香气 奔跑时扬起的薄纱涟漪 是春风写下的三行情诗 / 🔸服务套餐： 【价格】一价全包，无任何隐形消费 【妆造】8服8造+内外景双拍+风格任选 【底片】底片全送+产品包邮到家 【产品】相框+相册+摆台+迎宾海报... ------------------------------------- 关注&amp;私信回复“1”获取最新报价 关注&amp;私信回复“2”获取更多客片 ------------------------------------- #铂爵旅拍 #旅拍婚纱照 #旅拍 #婚纱照 #外景婚纱照 #厦门婚纱照 #伯爵旅拍 #森系婚纱照 #浪漫婚纱照 #婚纱照风格</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C925" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>新疆赛里木湖·公路婚纱照｜把爱情装进风里 📥左下角私信扣【1】获取更多优惠活动 📷拍摄：@伯爵旅拍 💯真实客片 / 谁说婚纱照一定要穿婚纱？ 我们选择用便装演绎最真实的浪漫 在赛里木湖的大道上 把爱情装进后备箱 一路向西🚗   停车 牵手 奔跑 在无人的公路上放肆大笑💗 镜头捕捉到的不是pose 而是爱情最松弛的模样   我们相拥而立 身后是整片赛里木湖的温柔 这一刻 连风都在为我们祝福🎉 / 🔸服务套餐： 【价格】一价全包，无任何隐形消费 【妆造】8服8造+内外景双拍+风格任选 【底片】底片全送+产品包邮到家 【产品】相框+相册+摆台+迎宾海报... ------------------------------------- 关注&amp;私信回复“1”获取最新报价 关注&amp;私信回复“2”获取更多客片 ------------------------------------- #新疆旅拍 #赛里木湖 #公路婚纱照 #小众婚纱照 #旅拍婚纱照#新疆婚纱照 #铂爵旅拍 #旅拍 #旅拍婚纱照 #纪实婚纱照</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C926" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>🏔️川西秘境婚纱照｜把心动藏进雪山与草甸 📥左下角私信扣【1】获取更多优惠活动 📷拍摄：@伯爵旅拍 💯真实客片 / 在川西 我们选择与风共舞💃 让裙摆沾染青草香 站在海拔4000米的垭口 身后是连绵的雪山🏔️与经幡 你牵着我的手 笑得比格桑花还灿烂 这一刻 连呼吸都是自由的   奔跑在无边的草甸上🍃 裙角沾满露珠与阳光 镜头捕捉到的不是刻意 而是爱情最本真的模样 / 🔸服务套餐： 【价格】一价全包，无任何隐形消费 【妆造】8服8造+内外景双拍+风格任选 【底片】底片全送+产品包邮到家 【产品】相框+相册+摆台+迎宾海报... ------------------------------------- 关注&amp;私信回复“1”获取最新报价 关注&amp;私信回复“2”获取更多客片 ------------------------------------- #川西旅拍 #川西婚纱照 #小众婚纱照 #旅拍婚纱照 #铂爵旅拍 #旅拍 #雪山婚礼 #川西婚纱照推荐 #外景婚纱照 #伯爵旅拍</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C927" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>🤖✨ AI婚纱照｜当未来科技遇见永恒浪漫 📥左下角私信扣【1】获取更多优惠活动 📷拍摄：@伯爵旅拍 / 谁说婚纱照只能是现实场景？ 在AI的世界里 我们打破次元壁 让爱情穿梭于虚拟与现实之间 每一帧都是独一无二的数字艺术   站在全息投影的星河中✨ 身后是流动的极光与星云 你牵着我的手 笑容比数据流还要璀璨 这一刻 连代码都在为我们跳动 / 🔸服务套餐： 【价格】一价全包，无任何隐形消费 【妆造】8服8造+内外景双拍+风格任选 【底片】底片全送+产品包邮到家 【产品】相框+相册+摆台+迎宾海报... ------------------------------------- 关注&amp;私信回复“1”获取最新报价 关注&amp;私信回复“2”获取更多客片 ------------------------------------- #AI婚纱照 #科技婚纱照 #未来风婚纱照 #数字艺术婚纱 #深圳婚纱照 #婚纱照 #内景婚纱照 #铂爵旅拍 #室内婚纱照 #婚纱照风格</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C928" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>当室内婚纱照与AI结合…内景风格更新 📥左下角私信扣【1】获取更多优惠活动 📷拍摄：@伯爵旅拍 / 漫步在AI构建的梦幻花园 花瓣由像素组成 却散发着真实的芬芳🌼 镜头捕捉到的不是简单的影像 而是科技与爱情碰撞的火花🔥   当虚拟与现实完美融合 我们相拥而立 身后是整个数字宇宙的祝福 这一刻 连AI都在为我们的爱情点赞 / 🔸服务套餐： 【价格】一价全包，无任何隐形消费 【妆造】8服8造+内外景双拍+风格任选 【底片】底片全送+产品包邮到家 【产品】相框+相册+摆台+迎宾海报... ------------------------------------- 关注&amp;私信回复“1”获取最新报价 关注&amp;私信回复“2”获取更多客片 ------------------------------------- #AI婚纱照 #科技婚纱照 #未来风婚纱照 #数字艺术婚纱 #深圳婚纱照 #深圳婚纱照哪家好 #婚纱照 #高级感婚纱照 #室内婚纱照 #浪漫婚纱照</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C929" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>这样的婚纱照怎么能不心动呢❓ #婚纱照 #旅拍 #备婚 #旅拍婚纱照 #婚纱照花絮 #氛围感婚纱照 #婚纱照客片 #厦门婚纱照 #森系婚纱照</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C930" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>我的丽江目的地婚礼好像踩雷了.....❌ 其实也不算目的地婚礼，是拍婚纱照的一种风格， 所以比目的地婚礼便宜很多， 我选的是丽江，风景真的好美，怪不得这么多人来 ✅ 吐血整理避坑攻略 建议收藏！ ✨ 前期准备 1.确定预算范围 别被网上美图冲昏头脑 量力而行 2.选地点要三思 我对比了几个地方，最后选了丽江 海拔适中 风景绝美 性价比也高 ✨ 选商家避坑指南 1. 一定要问清楚套餐包含内容，有没有隐形费用 2. 多看客片！多看客片！ 样片都是骗人的 客片才真实 我看了100+组客片才定下来 ✨ 现场避坑 带够保暖衣物 别像我冻得直哆嗦还要强颜欢笑 ✨ 后期避坑 1.确认精修张数，选片保持理性 2.底片是否全送，多久给，要提前说好 最后想说 虽然过程很累 但是拍照的过程很开心， 真的觉得一切都值得！！ 期待成片啦！ 希望这篇攻略能帮到备婚的你们 #目的地婚礼 #婚礼避坑 #备婚攻略 #丽江婚礼 #婚礼经验分享#婚纱照 #丽江婚纱照 #旅拍婚纱照 #雪山婚纱照 #旅拍推荐</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C931" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>来厦门拍婚纱照啦！幸好没踩雷！#真实客照 #旅拍 #婚纱照 #厦门婚纱照 #每个女孩的婚纱梦</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C932" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>婚纱照安全下车啦！厦门真的好美！#婚纱照 #旅拍 #真实客照 #厦门婚纱照 #每个女孩的婚纱梦</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C933" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>我的婚纱照vlog｜欢迎收看我的备婚日记之拍婚纱照#婚纱照 #旅拍 #真实客照 #每个女孩的婚纱梦 #厦门婚纱照</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C934" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>来厦门拍婚纱照啦！没踩雷！#婚纱照 #旅拍 #真实客照 #每个女孩的婚纱梦 #我的婚纱照</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAiPGTtjScf9-oykyZP5XFbg</t>
+        </is>
+      </c>
+      <c r="C935" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>初春当然要拍生命力的森系婚纱照呀！客片 ﻿#森系婚纱照﻿ ﻿#婚纱照的生命力﻿ ﻿#客片分享﻿ ﻿#真实客片分享﻿ ﻿#外景婚纱照﻿ ﻿#草坪婚纱照﻿ ﻿#婚纱照花絮</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAqSVDV7mnrv_Lv7zZ8BwrqA</t>
+        </is>
+      </c>
+      <c r="C936" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>把松弛感和仪式感揉进婚纱照里！厦门婚纱照 ﻿#森系婚纱照﻿ ﻿#婚纱照花絮﻿ ﻿#外景婚纱照﻿ ﻿#仪式感婚纱照﻿ ﻿#高级感婚纱照﻿ ﻿#氛围感婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#教堂婚纱照</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAqSVDV7mnrv_Lv7zZ8BwrqA</t>
+        </is>
+      </c>
+      <c r="C937" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>在三亚6000多拍的婚纱照！终于出成片啦！ #婚纱照成片 #婚纱照 #婚纱照分享 #三亚婚纱照</t>
+        </is>
+      </c>
+      <c r="B938" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAqSVDV7mnrv_Lv7zZ8BwrqA</t>
+        </is>
+      </c>
+      <c r="C938" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>谁能拒绝波光粼粼的海边婚纱照呢，三亚客片 波光粼粼的海面 和落日下的橘子海 是浪漫氛围感的神！   洁白的婚纱随风轻轻摇曳 在海浪的低吟中翩翩起舞   是普通人也能驾驭的海边婚纱照呀！ - 服务套餐： ✅价格：一价全包，无任何隐形消费 ✅妆造：8服8造+内外景双拍+风格任选 ✅底片：底片全送+产品包邮到家 ✅产品：相框+相册+摆台+迎宾海报... ✅赠送：机票补贴+3天2晚酒店入住 ✅售后：全程管家式服务+不满意重拍 - 更多风格+拍同款：﻿@铂爵旅拍三亚店﻿ ✅关注&amp;私信回复“1”获取最新报价 ✅关注&amp;私信回复“2”获取更多客片 ------------------------------------ ﻿#旅拍婚纱照﻿ ﻿#2025婚纱照﻿ ﻿#伯爵旅拍﻿ ﻿#客片分享﻿ ﻿#婚纱照﻿ ﻿#真实客片分享﻿ ﻿#小众婚纱照﻿ ﻿#海边婚纱照﻿ ﻿#三亚婚纱照﻿ ﻿#三亚旅拍</t>
+        </is>
+      </c>
+      <c r="B939" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAqSVDV7mnrv_Lv7zZ8BwrqA</t>
+        </is>
+      </c>
+      <c r="C939" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>再次被云杉坪美到555，藏进森林里的爱意 不是只拍三亚婚纱照！ 还有大理丽江厦门深圳杭州川西新疆巴厘岛等等 - 今日分享丽江的云杉坪！ 雪山下的小秘境 背靠雪山 辽阔的草坪 富有“小瑞士”之称的衫林草甸 不挑天气不挑季节 都超出片！ - 服务套餐： ✅价格：一价全包，无任何隐形消费 ✅妆造：8服8造+内外景双拍+风格任选 ✅底片：底片全送+产品包邮到家 ✅产品：相框+相册+摆台+迎宾海报... ✅赠送：机票补贴+3天2晚酒店入住 ✅售后：全程管家式服务+不满意重拍 - 更多风格+拍同款：﻿@铂爵旅拍三亚店﻿ ✅关注&amp;私信回复“1”获取最新报价 ✅关注&amp;私信回复“2”获取更多客片 ------------------------------------ ﻿#旅拍婚纱照﻿ ﻿#2025婚纱照﻿ ﻿#伯爵旅拍﻿ ﻿#云杉坪﻿ ﻿#丽江旅拍﻿ ﻿#丽江婚纱照﻿ ﻿#三亚婚纱照﻿ ﻿#森系婚纱照﻿ ﻿#外景婚纱照﻿ ﻿#雪山婚纱照</t>
+        </is>
+      </c>
+      <c r="B940" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAqSVDV7mnrv_Lv7zZ8BwrqA</t>
+        </is>
+      </c>
+      <c r="C940" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>春天啊~万物与少女皆是明媚与自由 春日 甜妹的主战场 感受爱意弥漫林间 浪漫揉碎在阳光的斑驳中 一袭粉纱，朦胧 灵动 如春日的散文诗，明媚 生动 这才是春夏该拍的风格！ - 服务套餐： ✅价格：一价全包，无任何隐形消费 ✅妆造：8服8造+内外景双拍+风格任选 ✅底片：底片全送+产品包邮到家 ✅产品：相框+相册+摆台+迎宾海报... ✅赠送：机票补贴+3天2晚酒店入住 ✅售后：全程管家式服务+不满意重拍 - 更多风格+拍同款：﻿﻿@铂爵旅拍三亚店﻿﻿ ✅关注&amp;私信回复“1”获取最新报价 ✅关注&amp;私信回复“2”获取更多客片 ------------------------------------ ﻿#旅拍婚纱照﻿ ﻿#2025婚纱照﻿ ﻿#伯爵旅拍﻿ ﻿#少女婚纱照﻿ ﻿#春日少女感婚纱照﻿ ﻿#森系婚纱照﻿ ﻿#草坪婚纱照﻿ ﻿#外景婚纱照﻿ ﻿#甜美浪漫婚纱照</t>
+        </is>
+      </c>
+      <c r="B941" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAqSVDV7mnrv_Lv7zZ8BwrqA</t>
+        </is>
+      </c>
+      <c r="C941" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>初春当然要拍生命力的森系婚纱照啦！ 清新治愈的草坪婚纱照 太适合春天啦~   轻柔的白纱拂过草坪 将盈盈绿意搬进婚纱照 真的好爱这氛围感~ 满屏的生命力和自由气息~ - 服务套餐： ✅价格：一价全包，无任何隐形消费 ✅妆造：8服8造+内外景双拍+风格任选 ✅底片：底片全送+产品包邮到家 ✅产品：相框+相册+摆台+迎宾海报... ✅赠送：机票补贴+3天2晚酒店入住 ✅售后：全程管家式服务+不满意重拍 - 更多风格+拍同款：﻿@铂爵旅拍三亚店﻿ ✅关注&amp;私信回复“1”获取最新报价 ✅关注&amp;私信回复“2”获取更多客片 ------------------------------------ ﻿#旅拍婚纱照﻿ ﻿#2025婚纱照﻿ ﻿#伯爵旅拍﻿ ﻿#森系婚纱照﻿ ﻿#婚纱照的生命力﻿ ﻿#草坪婚纱照﻿ ﻿#婚纱照风格﻿ ﻿#外景婚纱照﻿ ﻿#小众婚纱照﻿ ﻿#三亚旅拍</t>
+        </is>
+      </c>
+      <c r="B942" t="inlineStr">
+        <is>
+          <t>woxjrqDwAAqSVDV7mnrv_Lv7zZ8BwrqA</t>
+        </is>
+      </c>
+      <c r="C942" t="n">
         <v>0</v>
       </c>
     </row>
